--- a/SuppXLS/Scen_A_SYS_SAD_40TS-new.xlsx
+++ b/SuppXLS/Scen_A_SYS_SAD_40TS-new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E6B430-B68A-4032-A4C9-F7180D4C44E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBD322C-5DC1-4B2D-A1DB-1853AB7DE538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -118,8 +118,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1D3B9CF3-853D-4183-9A48-4968F8F4BFA9}</author>
+    <author>tc={0A547AFA-630E-49A3-B52E-18397733F8E3}</author>
+  </authors>
+  <commentList>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{1D3B9CF3-853D-4183-9A48-4968F8F4BFA9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Enable these columns to use "low AF" wind years</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{0A547AFA-630E-49A3-B52E-18397733F8E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See column "S"</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="146">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -552,6 +579,12 @@
   <si>
     <t>~TFM_INS-TS</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
 </sst>
 </file>
 
@@ -560,7 +593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -801,8 +834,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1016,6 +1055,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1234,7 +1279,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1305,6 +1350,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1368,6 +1414,3886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Residential buildings demand curves</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Space heating</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RSD_SH'!$B$3:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>AuNWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AuNWB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AuNWC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AuNWD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AuNWE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AuWDA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AuWDB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AuWDC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AuWDD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AuWDE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpNWA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpNWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpNWC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpNWD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SpNWE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SpWDA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SpWDB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SpWDC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SpWDD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SpWDE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SuNWA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SuNWB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SuNWC</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SuNWD</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SuNWE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SuWDA</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SuWDB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SuWDC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SuWDD</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SuWDE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>WiNWA</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>WiNWB</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>WiNWC</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>WiNWD</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>WiNWE</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>WiWDA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>WiWDB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>WiWDC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>WiWDD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>WiWDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RSD_SH'!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.9570000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3550000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.146E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6410000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.806E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.928E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.811E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0100000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9579999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.529E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0089999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9109999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3700000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2710000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.201E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3899999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.213E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4809999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3500000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9699999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7249999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1769999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0070000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.409E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3150000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3460000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.1060000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0140000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8759999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BFC-4103-85CA-01CCA11E2C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Other electric uses</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RSD_SH'!$B$3:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>AuNWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AuNWB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AuNWC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AuNWD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AuNWE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AuWDA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AuWDB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AuWDC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AuWDD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AuWDE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpNWA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpNWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpNWC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpNWD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SpNWE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SpWDA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SpWDB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SpWDC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SpWDD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SpWDE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SuNWA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SuNWB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SuNWC</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SuNWD</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SuNWE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SuWDA</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SuWDB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SuWDC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SuWDD</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SuWDE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>WiNWA</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>WiNWB</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>WiNWC</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>WiNWD</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>WiNWE</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>WiWDA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>WiWDB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>WiWDC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>WiWDD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>WiWDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RSD_OE_DEM'!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.129E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1599999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1059999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4799999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6650000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6780000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1730000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3339999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0070000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6109999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2329999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4729999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.436E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4229999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9050000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2449999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2859999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6289999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.811E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.112E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.296E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8120000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7429999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.702E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4400000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3050000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.461E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6549999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5429999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2840000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3589999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BFC-4103-85CA-01CCA11E2C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1116275215"/>
+        <c:axId val="1116278575"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1116275215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116278575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1116278575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116275215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Transport demand curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TRA_DEM!$B$3:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>AuNWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AuNWB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AuNWC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AuNWD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AuNWE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AuWDA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AuWDB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AuWDC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AuWDD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AuWDE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpNWA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpNWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpNWC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpNWD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SpNWE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SpWDA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SpWDB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SpWDC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SpWDD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SpWDE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SuNWA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SuNWB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SuNWC</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SuNWD</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SuNWE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SuWDA</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SuWDB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SuWDC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SuWDD</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SuWDE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>WiNWA</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>WiNWB</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>WiNWC</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>WiNWD</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>WiNWE</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>WiWDA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>WiWDB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>WiWDC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>WiWDD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>WiWDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TRA_DEM!$G$3:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>8.4999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4590000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.82E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1399999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5189999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8630000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7480000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6299999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4889999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11905</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.847E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6299999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6030000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.28E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5249999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.903E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.866E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.4799999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8930000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4900000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.742E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.763E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-891C-4FEA-82D6-85B30E0CDA6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="966265775"/>
+        <c:axId val="966266255"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="966265775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966266255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="966266255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966265775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Demand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> curve for services sector</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Commercial services</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>SRV_CS_DEM!$B$3:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>AuNWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AuNWB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AuNWC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AuNWD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AuNWE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AuWDA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AuWDB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AuWDC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AuWDD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AuWDE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpNWA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpNWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpNWC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpNWD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SpNWE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SpWDA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SpWDB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SpWDC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SpWDD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SpWDE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SuNWA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SuNWB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SuNWC</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SuNWD</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SuNWE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SuWDA</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SuWDB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SuWDC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SuWDD</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SuWDE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>WiNWA</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>WiNWB</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>WiNWC</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>WiNWD</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>WiNWE</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>WiWDA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>WiWDB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>WiWDC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>WiWDD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>WiWDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SRV_CS_DEM!$F$3:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.661E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9100000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3169999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.737E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6719999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1230000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.538E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0269999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.821E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4979999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4619999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8190000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6789999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1410000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5169999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.737E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2590000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2869999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7909999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.669E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8760000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.418E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.903E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7270000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4909999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.62E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5049999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0250000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5469999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.124E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08CE-4D8F-AE58-235E8B318311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Public services</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>SRV_CS_DEM!$B$3:$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>AuNWA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AuNWB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AuNWC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AuNWD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AuNWE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AuWDA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AuWDB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AuWDC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AuWDD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AuWDE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpNWA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpNWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpNWC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpNWD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SpNWE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SpWDA</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SpWDB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SpWDC</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SpWDD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SpWDE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SuNWA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SuNWB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SuNWC</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>SuNWD</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>SuNWE</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>SuWDA</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SuWDB</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>SuWDC</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>SuWDD</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>SuWDE</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>WiNWA</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>WiNWB</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>WiNWC</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>WiNWD</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>WiNWE</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>WiWDA</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>WiWDB</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>WiWDC</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>WiWDD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>WiWDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SRV_CS_DEM!$I$3:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1.8839999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2980000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2250000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0150000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.374E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.074E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.959E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8900000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3189999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9300000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.379E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.122E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7610000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7349999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2789999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9850000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.916E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.049E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2959999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2049999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7239999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.5199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.268E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.947E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9040000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4770000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5900000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9219999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7659999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.0280000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08CE-4D8F-AE58-235E8B318311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="974743231"/>
+        <c:axId val="974739871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="974743231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974739871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="974739871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974743231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1879,6 +5805,135 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6C13BB-C835-54A1-B2DC-BF8A02F3AF37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105B7C95-5C5B-F0EB-D936-3731184CFC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22BE7A-5126-7399-BA54-5089682F96B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Bakytzhan Suleimenov" id="{34F4513C-481E-4D15-AB02-6D179EB95545}" userId="S::BSuleimenov@ucc.ie::f6970575-8acf-461c-bc66-0e999b6a9f67" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00A0ED70-32B0-422F-A128-202FFFBDD989}" name="season_info19" displayName="season_info19" ref="L4:M16" totalsRowShown="0">
   <tableColumns count="2">
@@ -1931,15 +5986,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="srv_cs_dem" displayName="srv_cs_dem" ref="B2:G42" totalsRowShown="0">
-  <autoFilter ref="B2:G42" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="srv_cs_dem" displayName="srv_cs_dem" ref="B2:I42" totalsRowShown="0">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="TimeSlice"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Attribute"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Year"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Cset_CN"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="IE"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="National"/>
+    <tableColumn id="8" xr3:uid="{6E9A3E16-D088-48A5-ADB4-A02BB72C7617}" name="*"/>
+    <tableColumn id="7" xr3:uid="{61AFF334-B3B2-4172-B616-580DAC8EFF56}" name="*2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2408,6 +6464,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U2" dT="2024-04-12T01:09:00.85" personId="{34F4513C-481E-4D15-AB02-6D179EB95545}" id="{1D3B9CF3-853D-4183-9A48-4968F8F4BFA9}">
+    <text>Enable these columns to use "low AF" wind years</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2024-04-12T01:07:22.94" personId="{34F4513C-481E-4D15-AB02-6D179EB95545}" id="{0A547AFA-630E-49A3-B52E-18397733F8E3}">
+    <text>See column "S"</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E7995-53E7-4F58-976D-6AC1D3A1017B}">
   <dimension ref="A1:Z99"/>
@@ -5259,18 +9326,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -5289,8 +9358,14 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -5309,8 +9384,11 @@
       <c r="G3">
         <v>1.661E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1.8839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -5329,8 +9407,11 @@
       <c r="G4">
         <v>8.0400000000000003E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>9.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -5349,8 +9430,11 @@
       <c r="G5">
         <v>3.32E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>3.2980000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -5369,8 +9453,11 @@
       <c r="G6">
         <v>6.9100000000000003E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -5389,8 +9476,11 @@
       <c r="G7">
         <v>1.3169999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -5409,8 +9499,11 @@
       <c r="G8">
         <v>3.737E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>4.2250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -5429,8 +9522,11 @@
       <c r="G9">
         <v>1.6719999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1.8249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -5449,8 +9545,11 @@
       <c r="G10">
         <v>7.1230000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>7.0150000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -5469,8 +9568,11 @@
       <c r="G11">
         <v>1.538E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1.374E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -5489,8 +9591,11 @@
       <c r="G12">
         <v>3.0269999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>3.074E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -5509,8 +9614,11 @@
       <c r="G13">
         <v>1.821E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1.959E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>43</v>
       </c>
@@ -5529,8 +9637,11 @@
       <c r="G14">
         <v>8.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>8.8900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -5549,8 +9660,11 @@
       <c r="G15">
         <v>3.4979999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>3.3189999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -5569,8 +9683,11 @@
       <c r="G16">
         <v>7.3200000000000001E-3</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>5.9300000000000004E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -5589,8 +9706,11 @@
       <c r="G17">
         <v>1.4619999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1.379E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>47</v>
       </c>
@@ -5609,8 +9729,11 @@
       <c r="G18">
         <v>3.8190000000000002E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>4.122E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>48</v>
       </c>
@@ -5629,8 +9752,11 @@
       <c r="G19">
         <v>1.6789999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1.7610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -5649,8 +9775,11 @@
       <c r="G20">
         <v>7.1410000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>6.7349999999999993E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>50</v>
       </c>
@@ -5669,8 +9798,11 @@
       <c r="G21">
         <v>1.5169999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1.2789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -5689,8 +9821,11 @@
       <c r="G22">
         <v>3.0599999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>2.9850000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -5709,8 +9844,11 @@
       <c r="G23">
         <v>1.737E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1.916E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -5729,8 +9867,11 @@
       <c r="G24">
         <v>8.0499999999999999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>8.3499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -5749,8 +9890,11 @@
       <c r="G25">
         <v>3.2590000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>3.049E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -5769,8 +9913,11 @@
       <c r="G26">
         <v>6.45E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -5789,8 +9936,11 @@
       <c r="G27">
         <v>1.2869999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1.2959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -5809,8 +9959,11 @@
       <c r="G28">
         <v>3.7909999999999999E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>4.2049999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -5829,8 +9982,11 @@
       <c r="G29">
         <v>1.669E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1.7239999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>59</v>
       </c>
@@ -5849,8 +10005,11 @@
       <c r="G30">
         <v>6.8760000000000002E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -5869,8 +10028,11 @@
       <c r="G31">
         <v>1.418E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1.268E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -5889,8 +10051,11 @@
       <c r="G32">
         <v>2.903E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>2.947E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -5909,8 +10074,11 @@
       <c r="G33">
         <v>1.7270000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>1.9040000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -5929,8 +10097,11 @@
       <c r="G34">
         <v>7.9000000000000008E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -5949,8 +10120,11 @@
       <c r="G35">
         <v>3.4909999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>3.4770000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>65</v>
       </c>
@@ -5969,8 +10143,11 @@
       <c r="G36">
         <v>7.62E-3</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>6.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>66</v>
       </c>
@@ -5989,8 +10166,11 @@
       <c r="G37">
         <v>1.5049999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>1.447E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -6009,8 +10189,11 @@
       <c r="G38">
         <v>3.6299999999999999E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>3.9219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>68</v>
       </c>
@@ -6029,8 +10212,11 @@
       <c r="G39">
         <v>1.5630000000000002E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1.6979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -6049,8 +10235,11 @@
       <c r="G40">
         <v>7.0250000000000007E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>6.7659999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -6069,8 +10258,11 @@
       <c r="G41">
         <v>1.5469999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>1.3650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>71</v>
       </c>
@@ -6088,13 +10280,17 @@
       </c>
       <c r="G42">
         <v>3.124E-2</v>
+      </c>
+      <c r="I42">
+        <v>3.0280000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6103,7 +10299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6945,7 +11143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16016,7 +20216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16848,8 +21050,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -16858,8 +21061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17828,7 +22031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18667,11 +22872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AB202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18745,7 +22950,7 @@
       <c r="S2">
         <v>2018</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="34">
         <v>2030</v>
       </c>
       <c r="V2">
@@ -18810,11 +23015,11 @@
       </c>
       <c r="T3" s="28"/>
       <c r="U3" s="28">
-        <f>+S3</f>
+        <f t="shared" ref="U3:U34" si="0">+S3</f>
         <v>0.2615391879448738</v>
       </c>
       <c r="V3" s="28">
-        <f>+I3</f>
+        <f t="shared" ref="V3:V42" si="1">+I3</f>
         <v>0.21333065898580938</v>
       </c>
       <c r="W3" s="28">
@@ -18877,40 +23082,40 @@
         <v>84</v>
       </c>
       <c r="S4" s="28">
-        <f t="shared" ref="S4:S42" si="0">+J4</f>
+        <f t="shared" ref="S4:S42" si="2">+J4</f>
         <v>0.24662617086038857</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28">
-        <f>+S4</f>
+        <f t="shared" si="0"/>
         <v>0.24662617086038857</v>
       </c>
       <c r="V4" s="28">
-        <f>+I4</f>
+        <f t="shared" si="1"/>
         <v>0.20273082763562536</v>
       </c>
       <c r="W4" s="28">
-        <f t="shared" ref="W4:W67" si="1">+V4</f>
+        <f t="shared" ref="W4:W67" si="3">+V4</f>
         <v>0.20273082763562536</v>
       </c>
       <c r="X4" s="28">
-        <f t="shared" ref="X4:X43" si="2">+U4</f>
+        <f t="shared" ref="X4:X43" si="4">+U4</f>
         <v>0.24662617086038857</v>
       </c>
       <c r="Y4" s="28">
-        <f t="shared" ref="Y4:Y67" si="3">+X4</f>
+        <f t="shared" ref="Y4:Y67" si="5">+X4</f>
         <v>0.24662617086038857</v>
       </c>
       <c r="Z4" s="28">
-        <f t="shared" ref="Z4:Z43" si="4">+V4</f>
+        <f t="shared" ref="Z4:Z43" si="6">+V4</f>
         <v>0.20273082763562536</v>
       </c>
       <c r="AA4" s="28">
-        <f t="shared" ref="AA4:AA43" si="5">+W4</f>
+        <f t="shared" ref="AA4:AA43" si="7">+W4</f>
         <v>0.20273082763562536</v>
       </c>
       <c r="AB4" s="28">
-        <f t="shared" ref="AB4:AB43" si="6">+Y4</f>
+        <f t="shared" ref="AB4:AB43" si="8">+Y4</f>
         <v>0.24662617086038857</v>
       </c>
     </row>
@@ -18949,40 +23154,40 @@
         <v>84</v>
       </c>
       <c r="S5" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27908670590727425</v>
+      </c>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28">
         <f t="shared" si="0"/>
         <v>0.27908670590727425</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28">
-        <f>+S5</f>
-        <v>0.27908670590727425</v>
-      </c>
       <c r="V5" s="28">
-        <f>+I5</f>
-        <v>0.21956958583887923</v>
-      </c>
-      <c r="W5" s="28">
         <f t="shared" si="1"/>
         <v>0.21956958583887923</v>
       </c>
+      <c r="W5" s="28">
+        <f t="shared" si="3"/>
+        <v>0.21956958583887923</v>
+      </c>
       <c r="X5" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27908670590727425</v>
       </c>
       <c r="Y5" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27908670590727425</v>
       </c>
       <c r="Z5" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.21956958583887923</v>
       </c>
       <c r="AA5" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21956958583887923</v>
       </c>
       <c r="AB5" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.27908670590727425</v>
       </c>
     </row>
@@ -19021,40 +23226,40 @@
         <v>84</v>
       </c>
       <c r="S6" s="28">
+        <f t="shared" si="2"/>
+        <v>0.28153817404249981</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28">
         <f t="shared" si="0"/>
         <v>0.28153817404249981</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28">
-        <f>+S6</f>
-        <v>0.28153817404249981</v>
-      </c>
       <c r="V6" s="28">
-        <f>+I6</f>
-        <v>0.2234790206883453</v>
-      </c>
-      <c r="W6" s="28">
         <f t="shared" si="1"/>
         <v>0.2234790206883453</v>
       </c>
+      <c r="W6" s="28">
+        <f t="shared" si="3"/>
+        <v>0.2234790206883453</v>
+      </c>
       <c r="X6" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28153817404249981</v>
       </c>
       <c r="Y6" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28153817404249981</v>
       </c>
       <c r="Z6" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2234790206883453</v>
       </c>
       <c r="AA6" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2234790206883453</v>
       </c>
       <c r="AB6" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28153817404249981</v>
       </c>
     </row>
@@ -19093,40 +23298,40 @@
         <v>84</v>
       </c>
       <c r="S7" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26880152784071087</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28">
         <f t="shared" si="0"/>
         <v>0.26880152784071087</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28">
-        <f>+S7</f>
-        <v>0.26880152784071087</v>
-      </c>
       <c r="V7" s="28">
-        <f>+I7</f>
-        <v>0.21119130046350057</v>
-      </c>
-      <c r="W7" s="28">
         <f t="shared" si="1"/>
         <v>0.21119130046350057</v>
       </c>
+      <c r="W7" s="28">
+        <f t="shared" si="3"/>
+        <v>0.21119130046350057</v>
+      </c>
       <c r="X7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26880152784071087</v>
       </c>
       <c r="Y7" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26880152784071087</v>
       </c>
       <c r="Z7" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.21119130046350057</v>
       </c>
       <c r="AA7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21119130046350057</v>
       </c>
       <c r="AB7" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26880152784071087</v>
       </c>
     </row>
@@ -19165,40 +23370,40 @@
         <v>84</v>
       </c>
       <c r="S8" s="28">
+        <f t="shared" si="2"/>
+        <v>0.30827219726668725</v>
+      </c>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28">
         <f t="shared" si="0"/>
         <v>0.30827219726668725</v>
       </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28">
-        <f>+S8</f>
-        <v>0.30827219726668725</v>
-      </c>
       <c r="V8" s="28">
-        <f>+I8</f>
-        <v>0.30930087361926023</v>
-      </c>
-      <c r="W8" s="28">
         <f t="shared" si="1"/>
         <v>0.30930087361926023</v>
       </c>
+      <c r="W8" s="28">
+        <f t="shared" si="3"/>
+        <v>0.30930087361926023</v>
+      </c>
       <c r="X8" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30827219726668725</v>
       </c>
       <c r="Y8" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30827219726668725</v>
       </c>
       <c r="Z8" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.30930087361926023</v>
       </c>
       <c r="AA8" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30930087361926023</v>
       </c>
       <c r="AB8" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30827219726668725</v>
       </c>
     </row>
@@ -19237,40 +23442,40 @@
         <v>84</v>
       </c>
       <c r="S9" s="28">
+        <f t="shared" si="2"/>
+        <v>0.32008843929690695</v>
+      </c>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28">
         <f t="shared" si="0"/>
         <v>0.32008843929690695</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28">
-        <f>+S9</f>
-        <v>0.32008843929690695</v>
-      </c>
       <c r="V9" s="28">
-        <f>+I9</f>
-        <v>0.29498586726923903</v>
-      </c>
-      <c r="W9" s="28">
         <f t="shared" si="1"/>
         <v>0.29498586726923903</v>
       </c>
+      <c r="W9" s="28">
+        <f t="shared" si="3"/>
+        <v>0.29498586726923903</v>
+      </c>
       <c r="X9" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32008843929690695</v>
       </c>
       <c r="Y9" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.32008843929690695</v>
       </c>
       <c r="Z9" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.29498586726923903</v>
       </c>
       <c r="AA9" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29498586726923903</v>
       </c>
       <c r="AB9" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32008843929690695</v>
       </c>
     </row>
@@ -19309,40 +23514,40 @@
         <v>84</v>
       </c>
       <c r="S10" s="28">
+        <f t="shared" si="2"/>
+        <v>0.34203810109737598</v>
+      </c>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28">
         <f t="shared" si="0"/>
         <v>0.34203810109737598</v>
       </c>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28">
-        <f>+S10</f>
-        <v>0.34203810109737598</v>
-      </c>
       <c r="V10" s="28">
-        <f>+I10</f>
-        <v>0.33329368051433145</v>
-      </c>
-      <c r="W10" s="28">
         <f t="shared" si="1"/>
         <v>0.33329368051433145</v>
       </c>
+      <c r="W10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.33329368051433145</v>
+      </c>
       <c r="X10" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34203810109737598</v>
       </c>
       <c r="Y10" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.34203810109737598</v>
       </c>
       <c r="Z10" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33329368051433145</v>
       </c>
       <c r="AA10" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33329368051433145</v>
       </c>
       <c r="AB10" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.34203810109737598</v>
       </c>
     </row>
@@ -19381,40 +23586,40 @@
         <v>84</v>
       </c>
       <c r="S11" s="28">
+        <f t="shared" si="2"/>
+        <v>0.32038827974878886</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28">
         <f t="shared" si="0"/>
         <v>0.32038827974878886</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28">
-        <f>+S11</f>
-        <v>0.32038827974878886</v>
-      </c>
       <c r="V11" s="28">
-        <f>+I11</f>
-        <v>0.33412801544191639</v>
-      </c>
-      <c r="W11" s="28">
         <f t="shared" si="1"/>
         <v>0.33412801544191639</v>
       </c>
+      <c r="W11" s="28">
+        <f t="shared" si="3"/>
+        <v>0.33412801544191639</v>
+      </c>
       <c r="X11" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32038827974878886</v>
       </c>
       <c r="Y11" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.32038827974878886</v>
       </c>
       <c r="Z11" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33412801544191639</v>
       </c>
       <c r="AA11" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33412801544191639</v>
       </c>
       <c r="AB11" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32038827974878886</v>
       </c>
     </row>
@@ -19453,40 +23658,40 @@
         <v>84</v>
       </c>
       <c r="S12" s="28">
+        <f t="shared" si="2"/>
+        <v>0.31619372495138154</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28">
         <f t="shared" si="0"/>
         <v>0.31619372495138154</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28">
-        <f>+S12</f>
-        <v>0.31619372495138154</v>
-      </c>
       <c r="V12" s="28">
-        <f>+I12</f>
-        <v>0.33336383421318228</v>
-      </c>
-      <c r="W12" s="28">
         <f t="shared" si="1"/>
         <v>0.33336383421318228</v>
       </c>
+      <c r="W12" s="28">
+        <f t="shared" si="3"/>
+        <v>0.33336383421318228</v>
+      </c>
       <c r="X12" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31619372495138154</v>
       </c>
       <c r="Y12" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31619372495138154</v>
       </c>
       <c r="Z12" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.33336383421318228</v>
       </c>
       <c r="AA12" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33336383421318228</v>
       </c>
       <c r="AB12" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.31619372495138154</v>
       </c>
     </row>
@@ -19525,40 +23730,40 @@
         <v>84</v>
       </c>
       <c r="S13" s="28">
+        <f t="shared" si="2"/>
+        <v>0.21146105259145612</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28">
         <f t="shared" si="0"/>
         <v>0.21146105259145612</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28">
-        <f>+S13</f>
-        <v>0.21146105259145612</v>
-      </c>
       <c r="V13" s="28">
-        <f>+I13</f>
-        <v>0.13642669419869599</v>
-      </c>
-      <c r="W13" s="28">
         <f t="shared" si="1"/>
         <v>0.13642669419869599</v>
       </c>
+      <c r="W13" s="28">
+        <f t="shared" si="3"/>
+        <v>0.13642669419869599</v>
+      </c>
       <c r="X13" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21146105259145612</v>
       </c>
       <c r="Y13" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21146105259145612</v>
       </c>
       <c r="Z13" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.13642669419869599</v>
       </c>
       <c r="AA13" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13642669419869599</v>
       </c>
       <c r="AB13" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21146105259145612</v>
       </c>
     </row>
@@ -19597,40 +23802,40 @@
         <v>84</v>
       </c>
       <c r="S14" s="28">
+        <f t="shared" si="2"/>
+        <v>0.21569445096532994</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28">
         <f t="shared" si="0"/>
         <v>0.21569445096532994</v>
       </c>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28">
-        <f>+S14</f>
-        <v>0.21569445096532994</v>
-      </c>
       <c r="V14" s="28">
-        <f>+I14</f>
-        <v>0.12640998558156102</v>
-      </c>
-      <c r="W14" s="28">
         <f t="shared" si="1"/>
         <v>0.12640998558156102</v>
       </c>
+      <c r="W14" s="28">
+        <f t="shared" si="3"/>
+        <v>0.12640998558156102</v>
+      </c>
       <c r="X14" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21569445096532994</v>
       </c>
       <c r="Y14" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21569445096532994</v>
       </c>
       <c r="Z14" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.12640998558156102</v>
       </c>
       <c r="AA14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12640998558156102</v>
       </c>
       <c r="AB14" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21569445096532994</v>
       </c>
     </row>
@@ -19669,40 +23874,40 @@
         <v>84</v>
       </c>
       <c r="S15" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26551406273912936</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28">
         <f t="shared" si="0"/>
         <v>0.26551406273912936</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28">
-        <f>+S15</f>
-        <v>0.26551406273912936</v>
-      </c>
       <c r="V15" s="28">
-        <f>+I15</f>
-        <v>0.16370285721196437</v>
-      </c>
-      <c r="W15" s="28">
         <f t="shared" si="1"/>
         <v>0.16370285721196437</v>
       </c>
+      <c r="W15" s="28">
+        <f t="shared" si="3"/>
+        <v>0.16370285721196437</v>
+      </c>
       <c r="X15" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26551406273912936</v>
       </c>
       <c r="Y15" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26551406273912936</v>
       </c>
       <c r="Z15" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16370285721196437</v>
       </c>
       <c r="AA15" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16370285721196437</v>
       </c>
       <c r="AB15" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26551406273912936</v>
       </c>
     </row>
@@ -19741,40 +23946,40 @@
         <v>84</v>
       </c>
       <c r="S16" s="28">
+        <f t="shared" si="2"/>
+        <v>0.25519963674072871</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28">
         <f t="shared" si="0"/>
         <v>0.25519963674072871</v>
       </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28">
-        <f>+S16</f>
-        <v>0.25519963674072871</v>
-      </c>
       <c r="V16" s="28">
-        <f>+I16</f>
-        <v>0.18856982571073463</v>
-      </c>
-      <c r="W16" s="28">
         <f t="shared" si="1"/>
         <v>0.18856982571073463</v>
       </c>
+      <c r="W16" s="28">
+        <f t="shared" si="3"/>
+        <v>0.18856982571073463</v>
+      </c>
       <c r="X16" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25519963674072871</v>
       </c>
       <c r="Y16" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25519963674072871</v>
       </c>
       <c r="Z16" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18856982571073463</v>
       </c>
       <c r="AA16" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18856982571073463</v>
       </c>
       <c r="AB16" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.25519963674072871</v>
       </c>
     </row>
@@ -19813,40 +24018,40 @@
         <v>84</v>
       </c>
       <c r="S17" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22798302013074156</v>
+      </c>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28">
         <f t="shared" si="0"/>
         <v>0.22798302013074156</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28">
-        <f>+S17</f>
-        <v>0.22798302013074156</v>
-      </c>
       <c r="V17" s="28">
-        <f>+I17</f>
-        <v>0.18599450899803294</v>
-      </c>
-      <c r="W17" s="28">
         <f t="shared" si="1"/>
         <v>0.18599450899803294</v>
       </c>
+      <c r="W17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.18599450899803294</v>
+      </c>
       <c r="X17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22798302013074156</v>
       </c>
       <c r="Y17" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.22798302013074156</v>
       </c>
       <c r="Z17" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18599450899803294</v>
       </c>
       <c r="AA17" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18599450899803294</v>
       </c>
       <c r="AB17" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22798302013074156</v>
       </c>
     </row>
@@ -19885,40 +24090,40 @@
         <v>84</v>
       </c>
       <c r="S18" s="28">
+        <f t="shared" si="2"/>
+        <v>0.23280074715349736</v>
+      </c>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28">
         <f t="shared" si="0"/>
         <v>0.23280074715349736</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28">
-        <f>+S18</f>
-        <v>0.23280074715349736</v>
-      </c>
       <c r="V18" s="28">
-        <f>+I18</f>
-        <v>0.2008431079666845</v>
-      </c>
-      <c r="W18" s="28">
         <f t="shared" si="1"/>
         <v>0.2008431079666845</v>
       </c>
+      <c r="W18" s="28">
+        <f t="shared" si="3"/>
+        <v>0.2008431079666845</v>
+      </c>
       <c r="X18" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23280074715349736</v>
       </c>
       <c r="Y18" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23280074715349736</v>
       </c>
       <c r="Z18" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2008431079666845</v>
       </c>
       <c r="AA18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2008431079666845</v>
       </c>
       <c r="AB18" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23280074715349736</v>
       </c>
     </row>
@@ -19957,40 +24162,40 @@
         <v>84</v>
       </c>
       <c r="S19" s="28">
+        <f t="shared" si="2"/>
+        <v>0.24795244955580448</v>
+      </c>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28">
         <f t="shared" si="0"/>
         <v>0.24795244955580448</v>
       </c>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28">
-        <f>+S19</f>
-        <v>0.24795244955580448</v>
-      </c>
       <c r="V19" s="28">
-        <f>+I19</f>
-        <v>0.19175319444833813</v>
-      </c>
-      <c r="W19" s="28">
         <f t="shared" si="1"/>
         <v>0.19175319444833813</v>
       </c>
+      <c r="W19" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19175319444833813</v>
+      </c>
       <c r="X19" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24795244955580448</v>
       </c>
       <c r="Y19" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.24795244955580448</v>
       </c>
       <c r="Z19" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19175319444833813</v>
       </c>
       <c r="AA19" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19175319444833813</v>
       </c>
       <c r="AB19" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24795244955580448</v>
       </c>
     </row>
@@ -20029,40 +24234,40 @@
         <v>84</v>
       </c>
       <c r="S20" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27949263253762585</v>
+      </c>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28">
         <f t="shared" si="0"/>
         <v>0.27949263253762585</v>
       </c>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28">
-        <f>+S20</f>
-        <v>0.27949263253762585</v>
-      </c>
       <c r="V20" s="28">
-        <f>+I20</f>
-        <v>0.21421153547780661</v>
-      </c>
-      <c r="W20" s="28">
         <f t="shared" si="1"/>
         <v>0.21421153547780661</v>
       </c>
+      <c r="W20" s="28">
+        <f t="shared" si="3"/>
+        <v>0.21421153547780661</v>
+      </c>
       <c r="X20" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27949263253762585</v>
       </c>
       <c r="Y20" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27949263253762585</v>
       </c>
       <c r="Z20" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.21421153547780661</v>
       </c>
       <c r="AA20" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21421153547780661</v>
       </c>
       <c r="AB20" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.27949263253762585</v>
       </c>
     </row>
@@ -20101,40 +24306,40 @@
         <v>84</v>
       </c>
       <c r="S21" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26669290546191438</v>
+      </c>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28">
         <f t="shared" si="0"/>
         <v>0.26669290546191438</v>
       </c>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28">
-        <f>+S21</f>
-        <v>0.26669290546191438</v>
-      </c>
       <c r="V21" s="28">
-        <f>+I21</f>
-        <v>0.19764524519123439</v>
-      </c>
-      <c r="W21" s="28">
         <f t="shared" si="1"/>
         <v>0.19764524519123439</v>
       </c>
+      <c r="W21" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19764524519123439</v>
+      </c>
       <c r="X21" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26669290546191438</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26669290546191438</v>
       </c>
       <c r="Z21" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19764524519123439</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19764524519123439</v>
       </c>
       <c r="AB21" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26669290546191438</v>
       </c>
     </row>
@@ -20173,40 +24378,40 @@
         <v>84</v>
       </c>
       <c r="S22" s="28">
+        <f t="shared" si="2"/>
+        <v>0.23209688627044525</v>
+      </c>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28">
         <f t="shared" si="0"/>
         <v>0.23209688627044525</v>
       </c>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28">
-        <f>+S22</f>
-        <v>0.23209688627044525</v>
-      </c>
       <c r="V22" s="28">
-        <f>+I22</f>
-        <v>0.18942298533620319</v>
-      </c>
-      <c r="W22" s="28">
         <f t="shared" si="1"/>
         <v>0.18942298533620319</v>
       </c>
+      <c r="W22" s="28">
+        <f t="shared" si="3"/>
+        <v>0.18942298533620319</v>
+      </c>
       <c r="X22" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23209688627044525</v>
       </c>
       <c r="Y22" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23209688627044525</v>
       </c>
       <c r="Z22" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18942298533620319</v>
       </c>
       <c r="AA22" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18942298533620319</v>
       </c>
       <c r="AB22" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23209688627044525</v>
       </c>
     </row>
@@ -20245,40 +24450,40 @@
         <v>84</v>
       </c>
       <c r="S23" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1241494032731557</v>
+      </c>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28">
         <f t="shared" si="0"/>
         <v>0.1241494032731557</v>
       </c>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28">
-        <f>+S23</f>
-        <v>0.1241494032731557</v>
-      </c>
       <c r="V23" s="28">
-        <f>+I23</f>
-        <v>0.19748549699731627</v>
-      </c>
-      <c r="W23" s="28">
         <f t="shared" si="1"/>
         <v>0.19748549699731627</v>
       </c>
+      <c r="W23" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19748549699731627</v>
+      </c>
       <c r="X23" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1241494032731557</v>
       </c>
       <c r="Y23" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1241494032731557</v>
       </c>
       <c r="Z23" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19748549699731627</v>
       </c>
       <c r="AA23" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19748549699731627</v>
       </c>
       <c r="AB23" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1241494032731557</v>
       </c>
     </row>
@@ -20317,40 +24522,40 @@
         <v>84</v>
       </c>
       <c r="S24" s="28">
+        <f t="shared" si="2"/>
+        <v>0.12763334415320862</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28">
         <f t="shared" si="0"/>
         <v>0.12763334415320862</v>
       </c>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28">
-        <f>+S24</f>
-        <v>0.12763334415320862</v>
-      </c>
       <c r="V24" s="28">
-        <f>+I24</f>
-        <v>0.19187099853298492</v>
-      </c>
-      <c r="W24" s="28">
         <f t="shared" si="1"/>
         <v>0.19187099853298492</v>
       </c>
+      <c r="W24" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19187099853298492</v>
+      </c>
       <c r="X24" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12763334415320862</v>
       </c>
       <c r="Y24" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12763334415320862</v>
       </c>
       <c r="Z24" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19187099853298492</v>
       </c>
       <c r="AA24" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19187099853298492</v>
       </c>
       <c r="AB24" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12763334415320862</v>
       </c>
     </row>
@@ -20389,40 +24594,40 @@
         <v>84</v>
       </c>
       <c r="S25" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16028909526939175</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28">
         <f t="shared" si="0"/>
         <v>0.16028909526939175</v>
       </c>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28">
-        <f>+S25</f>
-        <v>0.16028909526939175</v>
-      </c>
       <c r="V25" s="28">
-        <f>+I25</f>
-        <v>0.23165969800300892</v>
-      </c>
-      <c r="W25" s="28">
         <f t="shared" si="1"/>
         <v>0.23165969800300892</v>
       </c>
+      <c r="W25" s="28">
+        <f t="shared" si="3"/>
+        <v>0.23165969800300892</v>
+      </c>
       <c r="X25" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16028909526939175</v>
       </c>
       <c r="Y25" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16028909526939175</v>
       </c>
       <c r="Z25" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23165969800300892</v>
       </c>
       <c r="AA25" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23165969800300892</v>
       </c>
       <c r="AB25" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16028909526939175</v>
       </c>
     </row>
@@ -20461,40 +24666,40 @@
         <v>84</v>
       </c>
       <c r="S26" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16699744707929676</v>
+      </c>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28">
         <f t="shared" si="0"/>
         <v>0.16699744707929676</v>
       </c>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28">
-        <f>+S26</f>
-        <v>0.16699744707929676</v>
-      </c>
       <c r="V26" s="28">
-        <f>+I26</f>
-        <v>0.22530726439396803</v>
-      </c>
-      <c r="W26" s="28">
         <f t="shared" si="1"/>
         <v>0.22530726439396803</v>
       </c>
+      <c r="W26" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22530726439396803</v>
+      </c>
       <c r="X26" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16699744707929676</v>
       </c>
       <c r="Y26" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16699744707929676</v>
       </c>
       <c r="Z26" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22530726439396803</v>
       </c>
       <c r="AA26" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22530726439396803</v>
       </c>
       <c r="AB26" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16699744707929676</v>
       </c>
     </row>
@@ -20533,40 +24738,40 @@
         <v>84</v>
       </c>
       <c r="S27" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15504261103793687</v>
+      </c>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28">
         <f t="shared" si="0"/>
         <v>0.15504261103793687</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28">
-        <f>+S27</f>
-        <v>0.15504261103793687</v>
-      </c>
       <c r="V27" s="28">
-        <f>+I27</f>
-        <v>0.19185095260198426</v>
-      </c>
-      <c r="W27" s="28">
         <f t="shared" si="1"/>
         <v>0.19185095260198426</v>
       </c>
+      <c r="W27" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19185095260198426</v>
+      </c>
       <c r="X27" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15504261103793687</v>
       </c>
       <c r="Y27" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15504261103793687</v>
       </c>
       <c r="Z27" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19185095260198426</v>
       </c>
       <c r="AA27" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19185095260198426</v>
       </c>
       <c r="AB27" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15504261103793687</v>
       </c>
     </row>
@@ -20605,40 +24810,40 @@
         <v>84</v>
       </c>
       <c r="S28" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1465946799033441</v>
+      </c>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28">
         <f t="shared" si="0"/>
         <v>0.1465946799033441</v>
       </c>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28">
-        <f>+S28</f>
-        <v>0.1465946799033441</v>
-      </c>
       <c r="V28" s="28">
-        <f>+I28</f>
-        <v>0.17763352641537994</v>
-      </c>
-      <c r="W28" s="28">
         <f t="shared" si="1"/>
         <v>0.17763352641537994</v>
       </c>
+      <c r="W28" s="28">
+        <f t="shared" si="3"/>
+        <v>0.17763352641537994</v>
+      </c>
       <c r="X28" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1465946799033441</v>
       </c>
       <c r="Y28" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1465946799033441</v>
       </c>
       <c r="Z28" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17763352641537994</v>
       </c>
       <c r="AA28" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17763352641537994</v>
       </c>
       <c r="AB28" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1465946799033441</v>
       </c>
     </row>
@@ -20677,40 +24882,40 @@
         <v>84</v>
       </c>
       <c r="S29" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15306829123984228</v>
+      </c>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28">
         <f t="shared" si="0"/>
         <v>0.15306829123984228</v>
       </c>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28">
-        <f>+S29</f>
-        <v>0.15306829123984228</v>
-      </c>
       <c r="V29" s="28">
-        <f>+I29</f>
-        <v>0.18732950991961</v>
-      </c>
-      <c r="W29" s="28">
         <f t="shared" si="1"/>
         <v>0.18732950991961</v>
       </c>
+      <c r="W29" s="28">
+        <f t="shared" si="3"/>
+        <v>0.18732950991961</v>
+      </c>
       <c r="X29" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15306829123984228</v>
       </c>
       <c r="Y29" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15306829123984228</v>
       </c>
       <c r="Z29" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.18732950991961</v>
       </c>
       <c r="AA29" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18732950991961</v>
       </c>
       <c r="AB29" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15306829123984228</v>
       </c>
     </row>
@@ -20749,40 +24954,40 @@
         <v>84</v>
       </c>
       <c r="S30" s="28">
+        <f t="shared" si="2"/>
+        <v>0.19365448041342401</v>
+      </c>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28">
         <f t="shared" si="0"/>
         <v>0.19365448041342401</v>
       </c>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28">
-        <f>+S30</f>
-        <v>0.19365448041342401</v>
-      </c>
       <c r="V30" s="28">
-        <f>+I30</f>
-        <v>0.22748908364661641</v>
-      </c>
-      <c r="W30" s="28">
         <f t="shared" si="1"/>
         <v>0.22748908364661641</v>
       </c>
+      <c r="W30" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22748908364661641</v>
+      </c>
       <c r="X30" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19365448041342401</v>
       </c>
       <c r="Y30" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19365448041342401</v>
       </c>
       <c r="Z30" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22748908364661641</v>
       </c>
       <c r="AA30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22748908364661641</v>
       </c>
       <c r="AB30" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19365448041342401</v>
       </c>
     </row>
@@ -20821,40 +25026,40 @@
         <v>84</v>
       </c>
       <c r="S31" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17988046286047893</v>
+      </c>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28">
         <f t="shared" si="0"/>
         <v>0.17988046286047893</v>
       </c>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28">
-        <f>+S31</f>
-        <v>0.17988046286047893</v>
-      </c>
       <c r="V31" s="28">
-        <f>+I31</f>
-        <v>0.21998500799405341</v>
-      </c>
-      <c r="W31" s="28">
         <f t="shared" si="1"/>
         <v>0.21998500799405341</v>
       </c>
+      <c r="W31" s="28">
+        <f t="shared" si="3"/>
+        <v>0.21998500799405341</v>
+      </c>
       <c r="X31" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17988046286047893</v>
       </c>
       <c r="Y31" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17988046286047893</v>
       </c>
       <c r="Z31" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.21998500799405341</v>
       </c>
       <c r="AA31" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21998500799405341</v>
       </c>
       <c r="AB31" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.17988046286047893</v>
       </c>
     </row>
@@ -20893,40 +25098,40 @@
         <v>84</v>
       </c>
       <c r="S32" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15118229932201993</v>
+      </c>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28">
         <f t="shared" si="0"/>
         <v>0.15118229932201993</v>
       </c>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28">
-        <f>+S32</f>
-        <v>0.15118229932201993</v>
-      </c>
       <c r="V32" s="28">
-        <f>+I32</f>
-        <v>0.19036568169853726</v>
-      </c>
-      <c r="W32" s="28">
         <f t="shared" si="1"/>
         <v>0.19036568169853726</v>
       </c>
+      <c r="W32" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19036568169853726</v>
+      </c>
       <c r="X32" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15118229932201993</v>
       </c>
       <c r="Y32" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15118229932201993</v>
       </c>
       <c r="Z32" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19036568169853726</v>
       </c>
       <c r="AA32" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19036568169853726</v>
       </c>
       <c r="AB32" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15118229932201993</v>
       </c>
     </row>
@@ -20965,40 +25170,40 @@
         <v>84</v>
       </c>
       <c r="S33" s="28">
+        <f t="shared" si="2"/>
+        <v>0.38864102516684107</v>
+      </c>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28">
         <f t="shared" si="0"/>
         <v>0.38864102516684107</v>
       </c>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28">
-        <f>+S33</f>
-        <v>0.38864102516684107</v>
-      </c>
       <c r="V33" s="28">
-        <f>+I33</f>
-        <v>0.17147490116580466</v>
-      </c>
-      <c r="W33" s="28">
         <f t="shared" si="1"/>
         <v>0.17147490116580466</v>
       </c>
+      <c r="W33" s="28">
+        <f t="shared" si="3"/>
+        <v>0.17147490116580466</v>
+      </c>
       <c r="X33" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38864102516684107</v>
       </c>
       <c r="Y33" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38864102516684107</v>
       </c>
       <c r="Z33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17147490116580466</v>
       </c>
       <c r="AA33" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17147490116580466</v>
       </c>
       <c r="AB33" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38864102516684107</v>
       </c>
     </row>
@@ -21037,40 +25242,40 @@
         <v>84</v>
       </c>
       <c r="S34" s="28">
+        <f t="shared" si="2"/>
+        <v>0.37307532522584164</v>
+      </c>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28">
         <f t="shared" si="0"/>
         <v>0.37307532522584164</v>
       </c>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28">
-        <f>+S34</f>
-        <v>0.37307532522584164</v>
-      </c>
       <c r="V34" s="28">
-        <f>+I34</f>
-        <v>0.15574569884141526</v>
-      </c>
-      <c r="W34" s="28">
         <f t="shared" si="1"/>
         <v>0.15574569884141526</v>
       </c>
+      <c r="W34" s="28">
+        <f t="shared" si="3"/>
+        <v>0.15574569884141526</v>
+      </c>
       <c r="X34" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37307532522584164</v>
       </c>
       <c r="Y34" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37307532522584164</v>
       </c>
       <c r="Z34" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15574569884141526</v>
       </c>
       <c r="AA34" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15574569884141526</v>
       </c>
       <c r="AB34" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37307532522584164</v>
       </c>
     </row>
@@ -21109,40 +25314,40 @@
         <v>84</v>
       </c>
       <c r="S35" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36720950916774409</v>
       </c>
       <c r="T35" s="28"/>
       <c r="U35" s="28">
-        <f>+S35</f>
+        <f t="shared" ref="U35:U66" si="9">+S35</f>
         <v>0.36720950916774409</v>
       </c>
       <c r="V35" s="28">
-        <f>+I35</f>
-        <v>0.16274821919383925</v>
-      </c>
-      <c r="W35" s="28">
         <f t="shared" si="1"/>
         <v>0.16274821919383925</v>
       </c>
+      <c r="W35" s="28">
+        <f t="shared" si="3"/>
+        <v>0.16274821919383925</v>
+      </c>
       <c r="X35" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36720950916774409</v>
       </c>
       <c r="Y35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36720950916774409</v>
       </c>
       <c r="Z35" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.16274821919383925</v>
       </c>
       <c r="AA35" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16274821919383925</v>
       </c>
       <c r="AB35" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36720950916774409</v>
       </c>
     </row>
@@ -21181,40 +25386,40 @@
         <v>84</v>
       </c>
       <c r="S36" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36257237601021491</v>
       </c>
       <c r="T36" s="28"/>
       <c r="U36" s="28">
-        <f>+S36</f>
+        <f t="shared" si="9"/>
         <v>0.36257237601021491</v>
       </c>
       <c r="V36" s="28">
-        <f>+I36</f>
-        <v>0.17468868294011081</v>
-      </c>
-      <c r="W36" s="28">
         <f t="shared" si="1"/>
         <v>0.17468868294011081</v>
       </c>
+      <c r="W36" s="28">
+        <f t="shared" si="3"/>
+        <v>0.17468868294011081</v>
+      </c>
       <c r="X36" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36257237601021491</v>
       </c>
       <c r="Y36" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36257237601021491</v>
       </c>
       <c r="Z36" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.17468868294011081</v>
       </c>
       <c r="AA36" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17468868294011081</v>
       </c>
       <c r="AB36" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36257237601021491</v>
       </c>
     </row>
@@ -21253,40 +25458,40 @@
         <v>84</v>
       </c>
       <c r="S37" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33563001257016267</v>
       </c>
       <c r="T37" s="28"/>
       <c r="U37" s="28">
-        <f>+S37</f>
+        <f t="shared" si="9"/>
         <v>0.33563001257016267</v>
       </c>
       <c r="V37" s="28">
-        <f>+I37</f>
-        <v>0.19677121117685234</v>
-      </c>
-      <c r="W37" s="28">
         <f t="shared" si="1"/>
         <v>0.19677121117685234</v>
       </c>
+      <c r="W37" s="28">
+        <f t="shared" si="3"/>
+        <v>0.19677121117685234</v>
+      </c>
       <c r="X37" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33563001257016267</v>
       </c>
       <c r="Y37" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33563001257016267</v>
       </c>
       <c r="Z37" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.19677121117685234</v>
       </c>
       <c r="AA37" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19677121117685234</v>
       </c>
       <c r="AB37" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33563001257016267</v>
       </c>
     </row>
@@ -21325,40 +25530,40 @@
         <v>84</v>
       </c>
       <c r="S38" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.38870999512774462</v>
       </c>
       <c r="T38" s="28"/>
       <c r="U38" s="28">
-        <f>+S38</f>
+        <f t="shared" si="9"/>
         <v>0.38870999512774462</v>
       </c>
       <c r="V38" s="28">
-        <f>+I38</f>
-        <v>0.22441237079282847</v>
-      </c>
-      <c r="W38" s="28">
         <f t="shared" si="1"/>
         <v>0.22441237079282847</v>
       </c>
+      <c r="W38" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22441237079282847</v>
+      </c>
       <c r="X38" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38870999512774462</v>
       </c>
       <c r="Y38" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38870999512774462</v>
       </c>
       <c r="Z38" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22441237079282847</v>
       </c>
       <c r="AA38" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22441237079282847</v>
       </c>
       <c r="AB38" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38870999512774462</v>
       </c>
     </row>
@@ -21397,40 +25602,40 @@
         <v>84</v>
       </c>
       <c r="S39" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3916926575387803</v>
       </c>
       <c r="T39" s="28"/>
       <c r="U39" s="28">
-        <f>+S39</f>
+        <f t="shared" si="9"/>
         <v>0.3916926575387803</v>
       </c>
       <c r="V39" s="28">
-        <f>+I39</f>
-        <v>0.23044614171909478</v>
-      </c>
-      <c r="W39" s="28">
         <f t="shared" si="1"/>
         <v>0.23044614171909478</v>
       </c>
+      <c r="W39" s="28">
+        <f t="shared" si="3"/>
+        <v>0.23044614171909478</v>
+      </c>
       <c r="X39" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3916926575387803</v>
       </c>
       <c r="Y39" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3916926575387803</v>
       </c>
       <c r="Z39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.23044614171909478</v>
       </c>
       <c r="AA39" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23044614171909478</v>
       </c>
       <c r="AB39" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3916926575387803</v>
       </c>
     </row>
@@ -21469,40 +25674,40 @@
         <v>84</v>
       </c>
       <c r="S40" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3944473902058579</v>
       </c>
       <c r="T40" s="28"/>
       <c r="U40" s="28">
-        <f>+S40</f>
+        <f t="shared" si="9"/>
         <v>0.3944473902058579</v>
       </c>
       <c r="V40" s="28">
-        <f>+I40</f>
-        <v>0.22368774522062279</v>
-      </c>
-      <c r="W40" s="28">
         <f t="shared" si="1"/>
         <v>0.22368774522062279</v>
       </c>
+      <c r="W40" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22368774522062279</v>
+      </c>
       <c r="X40" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3944473902058579</v>
       </c>
       <c r="Y40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3944473902058579</v>
       </c>
       <c r="Z40" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.22368774522062279</v>
       </c>
       <c r="AA40" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22368774522062279</v>
       </c>
       <c r="AB40" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3944473902058579</v>
       </c>
     </row>
@@ -21541,40 +25746,40 @@
         <v>84</v>
       </c>
       <c r="S41" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3758188887980754</v>
       </c>
       <c r="T41" s="28"/>
       <c r="U41" s="28">
-        <f>+S41</f>
+        <f t="shared" si="9"/>
         <v>0.3758188887980754</v>
       </c>
       <c r="V41" s="28">
-        <f>+I41</f>
-        <v>0.21272954448959527</v>
-      </c>
-      <c r="W41" s="28">
         <f t="shared" si="1"/>
         <v>0.21272954448959527</v>
       </c>
+      <c r="W41" s="28">
+        <f t="shared" si="3"/>
+        <v>0.21272954448959527</v>
+      </c>
       <c r="X41" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3758188887980754</v>
       </c>
       <c r="Y41" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3758188887980754</v>
       </c>
       <c r="Z41" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.21272954448959527</v>
       </c>
       <c r="AA41" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21272954448959527</v>
       </c>
       <c r="AB41" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3758188887980754</v>
       </c>
     </row>
@@ -21613,40 +25818,40 @@
         <v>84</v>
       </c>
       <c r="S42" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39322128587515753</v>
       </c>
       <c r="T42" s="28"/>
       <c r="U42" s="28">
-        <f>+S42</f>
+        <f t="shared" si="9"/>
         <v>0.39322128587515753</v>
       </c>
       <c r="V42" s="28">
-        <f>+I42</f>
-        <v>0.20209056778816453</v>
-      </c>
-      <c r="W42" s="28">
         <f t="shared" si="1"/>
         <v>0.20209056778816453</v>
       </c>
+      <c r="W42" s="28">
+        <f t="shared" si="3"/>
+        <v>0.20209056778816453</v>
+      </c>
       <c r="X42" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39322128587515753</v>
       </c>
       <c r="Y42" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39322128587515753</v>
       </c>
       <c r="Z42" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20209056778816453</v>
       </c>
       <c r="AA42" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20209056778816453</v>
       </c>
       <c r="AB42" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39322128587515753</v>
       </c>
     </row>
@@ -21679,35 +25884,35 @@
       </c>
       <c r="T43" s="28"/>
       <c r="U43" s="28">
-        <f>+S43</f>
+        <f t="shared" si="9"/>
         <v>0.50821503704414495</v>
       </c>
       <c r="V43" s="28">
-        <f>+K3</f>
+        <f t="shared" ref="V43:V82" si="10">+K3</f>
         <v>0.37910992839787644</v>
       </c>
       <c r="W43" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37910992839787644</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50821503704414495</v>
       </c>
       <c r="Y43" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50821503704414495</v>
       </c>
       <c r="Z43" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.37910992839787644</v>
       </c>
       <c r="AA43" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37910992839787644</v>
       </c>
       <c r="AB43" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.50821503704414495</v>
       </c>
     </row>
@@ -21741,40 +25946,40 @@
         <v>85</v>
       </c>
       <c r="S44" s="28">
-        <f t="shared" ref="S44:S82" si="7">+L4</f>
+        <f t="shared" ref="S44:S82" si="11">+L4</f>
         <v>0.51971038117653245</v>
       </c>
       <c r="T44" s="28"/>
       <c r="U44" s="28">
-        <f>+S44</f>
+        <f t="shared" si="9"/>
         <v>0.51971038117653245</v>
       </c>
       <c r="V44" s="28">
-        <f>+K4</f>
+        <f t="shared" si="10"/>
         <v>0.3831049215785966</v>
       </c>
       <c r="W44" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3831049215785966</v>
       </c>
       <c r="X44" s="28">
-        <f t="shared" ref="X44:X82" si="8">+U44</f>
+        <f t="shared" ref="X44:X82" si="12">+U44</f>
         <v>0.51971038117653245</v>
       </c>
       <c r="Y44" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51971038117653245</v>
       </c>
       <c r="Z44" s="28">
-        <f t="shared" ref="Z44:Z82" si="9">+V44</f>
+        <f t="shared" ref="Z44:Z82" si="13">+V44</f>
         <v>0.3831049215785966</v>
       </c>
       <c r="AA44" s="28">
-        <f t="shared" ref="AA44:AA82" si="10">+W44</f>
+        <f t="shared" ref="AA44:AA82" si="14">+W44</f>
         <v>0.3831049215785966</v>
       </c>
       <c r="AB44" s="28">
-        <f t="shared" ref="AB44:AB82" si="11">+Y44</f>
+        <f t="shared" ref="AB44:AB82" si="15">+Y44</f>
         <v>0.51971038117653245</v>
       </c>
     </row>
@@ -21808,40 +26013,40 @@
         <v>85</v>
       </c>
       <c r="S45" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.52367035496064263</v>
       </c>
       <c r="T45" s="28"/>
       <c r="U45" s="28">
-        <f>+S45</f>
+        <f t="shared" si="9"/>
         <v>0.52367035496064263</v>
       </c>
       <c r="V45" s="28">
-        <f>+K5</f>
-        <v>0.39940354508098785</v>
-      </c>
-      <c r="W45" s="28">
-        <f t="shared" si="1"/>
-        <v>0.39940354508098785</v>
-      </c>
-      <c r="X45" s="28">
-        <f t="shared" si="8"/>
-        <v>0.52367035496064263</v>
-      </c>
-      <c r="Y45" s="28">
-        <f t="shared" si="3"/>
-        <v>0.52367035496064263</v>
-      </c>
-      <c r="Z45" s="28">
-        <f t="shared" si="9"/>
-        <v>0.39940354508098785</v>
-      </c>
-      <c r="AA45" s="28">
         <f t="shared" si="10"/>
         <v>0.39940354508098785</v>
       </c>
+      <c r="W45" s="28">
+        <f t="shared" si="3"/>
+        <v>0.39940354508098785</v>
+      </c>
+      <c r="X45" s="28">
+        <f t="shared" si="12"/>
+        <v>0.52367035496064263</v>
+      </c>
+      <c r="Y45" s="28">
+        <f t="shared" si="5"/>
+        <v>0.52367035496064263</v>
+      </c>
+      <c r="Z45" s="28">
+        <f t="shared" si="13"/>
+        <v>0.39940354508098785</v>
+      </c>
+      <c r="AA45" s="28">
+        <f t="shared" si="14"/>
+        <v>0.39940354508098785</v>
+      </c>
       <c r="AB45" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.52367035496064263</v>
       </c>
     </row>
@@ -21875,40 +26080,40 @@
         <v>85</v>
       </c>
       <c r="S46" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.52273724451443881</v>
       </c>
       <c r="T46" s="28"/>
       <c r="U46" s="28">
-        <f>+S46</f>
+        <f t="shared" si="9"/>
         <v>0.52273724451443881</v>
       </c>
       <c r="V46" s="28">
-        <f>+K6</f>
-        <v>0.4132570749307749</v>
-      </c>
-      <c r="W46" s="28">
-        <f t="shared" si="1"/>
-        <v>0.4132570749307749</v>
-      </c>
-      <c r="X46" s="28">
-        <f t="shared" si="8"/>
-        <v>0.52273724451443881</v>
-      </c>
-      <c r="Y46" s="28">
-        <f t="shared" si="3"/>
-        <v>0.52273724451443881</v>
-      </c>
-      <c r="Z46" s="28">
-        <f t="shared" si="9"/>
-        <v>0.4132570749307749</v>
-      </c>
-      <c r="AA46" s="28">
         <f t="shared" si="10"/>
         <v>0.4132570749307749</v>
       </c>
+      <c r="W46" s="28">
+        <f t="shared" si="3"/>
+        <v>0.4132570749307749</v>
+      </c>
+      <c r="X46" s="28">
+        <f t="shared" si="12"/>
+        <v>0.52273724451443881</v>
+      </c>
+      <c r="Y46" s="28">
+        <f t="shared" si="5"/>
+        <v>0.52273724451443881</v>
+      </c>
+      <c r="Z46" s="28">
+        <f t="shared" si="13"/>
+        <v>0.4132570749307749</v>
+      </c>
+      <c r="AA46" s="28">
+        <f t="shared" si="14"/>
+        <v>0.4132570749307749</v>
+      </c>
       <c r="AB46" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.52273724451443881</v>
       </c>
     </row>
@@ -21942,40 +26147,40 @@
         <v>85</v>
       </c>
       <c r="S47" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.53147399978753773</v>
       </c>
       <c r="T47" s="28"/>
       <c r="U47" s="28">
-        <f>+S47</f>
+        <f t="shared" si="9"/>
         <v>0.53147399978753773</v>
       </c>
       <c r="V47" s="28">
-        <f>+K7</f>
-        <v>0.42192017680158911</v>
-      </c>
-      <c r="W47" s="28">
-        <f t="shared" si="1"/>
-        <v>0.42192017680158911</v>
-      </c>
-      <c r="X47" s="28">
-        <f t="shared" si="8"/>
-        <v>0.53147399978753773</v>
-      </c>
-      <c r="Y47" s="28">
-        <f t="shared" si="3"/>
-        <v>0.53147399978753773</v>
-      </c>
-      <c r="Z47" s="28">
-        <f t="shared" si="9"/>
-        <v>0.42192017680158911</v>
-      </c>
-      <c r="AA47" s="28">
         <f t="shared" si="10"/>
         <v>0.42192017680158911</v>
       </c>
+      <c r="W47" s="28">
+        <f t="shared" si="3"/>
+        <v>0.42192017680158911</v>
+      </c>
+      <c r="X47" s="28">
+        <f t="shared" si="12"/>
+        <v>0.53147399978753773</v>
+      </c>
+      <c r="Y47" s="28">
+        <f t="shared" si="5"/>
+        <v>0.53147399978753773</v>
+      </c>
+      <c r="Z47" s="28">
+        <f t="shared" si="13"/>
+        <v>0.42192017680158911</v>
+      </c>
+      <c r="AA47" s="28">
+        <f t="shared" si="14"/>
+        <v>0.42192017680158911</v>
+      </c>
       <c r="AB47" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.53147399978753773</v>
       </c>
     </row>
@@ -22009,40 +26214,40 @@
         <v>85</v>
       </c>
       <c r="S48" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.57661820346435722</v>
       </c>
       <c r="T48" s="28"/>
       <c r="U48" s="28">
-        <f>+S48</f>
+        <f t="shared" si="9"/>
         <v>0.57661820346435722</v>
       </c>
       <c r="V48" s="28">
-        <f>+K8</f>
-        <v>0.56121893886721907</v>
-      </c>
-      <c r="W48" s="28">
-        <f t="shared" si="1"/>
-        <v>0.56121893886721907</v>
-      </c>
-      <c r="X48" s="28">
-        <f t="shared" si="8"/>
-        <v>0.57661820346435722</v>
-      </c>
-      <c r="Y48" s="28">
-        <f t="shared" si="3"/>
-        <v>0.57661820346435722</v>
-      </c>
-      <c r="Z48" s="28">
-        <f t="shared" si="9"/>
-        <v>0.56121893886721907</v>
-      </c>
-      <c r="AA48" s="28">
         <f t="shared" si="10"/>
         <v>0.56121893886721907</v>
       </c>
+      <c r="W48" s="28">
+        <f t="shared" si="3"/>
+        <v>0.56121893886721907</v>
+      </c>
+      <c r="X48" s="28">
+        <f t="shared" si="12"/>
+        <v>0.57661820346435722</v>
+      </c>
+      <c r="Y48" s="28">
+        <f t="shared" si="5"/>
+        <v>0.57661820346435722</v>
+      </c>
+      <c r="Z48" s="28">
+        <f t="shared" si="13"/>
+        <v>0.56121893886721907</v>
+      </c>
+      <c r="AA48" s="28">
+        <f t="shared" si="14"/>
+        <v>0.56121893886721907</v>
+      </c>
       <c r="AB48" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.57661820346435722</v>
       </c>
     </row>
@@ -22076,40 +26281,40 @@
         <v>85</v>
       </c>
       <c r="S49" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.55424818841720591</v>
       </c>
       <c r="T49" s="28"/>
       <c r="U49" s="28">
-        <f>+S49</f>
+        <f t="shared" si="9"/>
         <v>0.55424818841720591</v>
       </c>
       <c r="V49" s="28">
-        <f>+K9</f>
-        <v>0.54084550237126194</v>
-      </c>
-      <c r="W49" s="28">
-        <f t="shared" si="1"/>
-        <v>0.54084550237126194</v>
-      </c>
-      <c r="X49" s="28">
-        <f t="shared" si="8"/>
-        <v>0.55424818841720591</v>
-      </c>
-      <c r="Y49" s="28">
-        <f t="shared" si="3"/>
-        <v>0.55424818841720591</v>
-      </c>
-      <c r="Z49" s="28">
-        <f t="shared" si="9"/>
-        <v>0.54084550237126194</v>
-      </c>
-      <c r="AA49" s="28">
         <f t="shared" si="10"/>
         <v>0.54084550237126194</v>
       </c>
+      <c r="W49" s="28">
+        <f t="shared" si="3"/>
+        <v>0.54084550237126194</v>
+      </c>
+      <c r="X49" s="28">
+        <f t="shared" si="12"/>
+        <v>0.55424818841720591</v>
+      </c>
+      <c r="Y49" s="28">
+        <f t="shared" si="5"/>
+        <v>0.55424818841720591</v>
+      </c>
+      <c r="Z49" s="28">
+        <f t="shared" si="13"/>
+        <v>0.54084550237126194</v>
+      </c>
+      <c r="AA49" s="28">
+        <f t="shared" si="14"/>
+        <v>0.54084550237126194</v>
+      </c>
       <c r="AB49" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.55424818841720591</v>
       </c>
     </row>
@@ -22143,40 +26348,40 @@
         <v>85</v>
       </c>
       <c r="S50" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.57149635091088025</v>
       </c>
       <c r="T50" s="28"/>
       <c r="U50" s="28">
-        <f>+S50</f>
+        <f t="shared" si="9"/>
         <v>0.57149635091088025</v>
       </c>
       <c r="V50" s="28">
-        <f>+K10</f>
-        <v>0.50382936737939643</v>
-      </c>
-      <c r="W50" s="28">
-        <f t="shared" si="1"/>
-        <v>0.50382936737939643</v>
-      </c>
-      <c r="X50" s="28">
-        <f t="shared" si="8"/>
-        <v>0.57149635091088025</v>
-      </c>
-      <c r="Y50" s="28">
-        <f t="shared" si="3"/>
-        <v>0.57149635091088025</v>
-      </c>
-      <c r="Z50" s="28">
-        <f t="shared" si="9"/>
-        <v>0.50382936737939643</v>
-      </c>
-      <c r="AA50" s="28">
         <f t="shared" si="10"/>
         <v>0.50382936737939643</v>
       </c>
+      <c r="W50" s="28">
+        <f t="shared" si="3"/>
+        <v>0.50382936737939643</v>
+      </c>
+      <c r="X50" s="28">
+        <f t="shared" si="12"/>
+        <v>0.57149635091088025</v>
+      </c>
+      <c r="Y50" s="28">
+        <f t="shared" si="5"/>
+        <v>0.57149635091088025</v>
+      </c>
+      <c r="Z50" s="28">
+        <f t="shared" si="13"/>
+        <v>0.50382936737939643</v>
+      </c>
+      <c r="AA50" s="28">
+        <f t="shared" si="14"/>
+        <v>0.50382936737939643</v>
+      </c>
       <c r="AB50" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.57149635091088025</v>
       </c>
     </row>
@@ -22210,40 +26415,40 @@
         <v>85</v>
       </c>
       <c r="S51" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.57683408772569622</v>
       </c>
       <c r="T51" s="28"/>
       <c r="U51" s="28">
-        <f>+S51</f>
+        <f t="shared" si="9"/>
         <v>0.57683408772569622</v>
       </c>
       <c r="V51" s="28">
-        <f>+K11</f>
-        <v>0.52251467694673803</v>
-      </c>
-      <c r="W51" s="28">
-        <f t="shared" si="1"/>
-        <v>0.52251467694673803</v>
-      </c>
-      <c r="X51" s="28">
-        <f t="shared" si="8"/>
-        <v>0.57683408772569622</v>
-      </c>
-      <c r="Y51" s="28">
-        <f t="shared" si="3"/>
-        <v>0.57683408772569622</v>
-      </c>
-      <c r="Z51" s="28">
-        <f t="shared" si="9"/>
-        <v>0.52251467694673803</v>
-      </c>
-      <c r="AA51" s="28">
         <f t="shared" si="10"/>
         <v>0.52251467694673803</v>
       </c>
+      <c r="W51" s="28">
+        <f t="shared" si="3"/>
+        <v>0.52251467694673803</v>
+      </c>
+      <c r="X51" s="28">
+        <f t="shared" si="12"/>
+        <v>0.57683408772569622</v>
+      </c>
+      <c r="Y51" s="28">
+        <f t="shared" si="5"/>
+        <v>0.57683408772569622</v>
+      </c>
+      <c r="Z51" s="28">
+        <f t="shared" si="13"/>
+        <v>0.52251467694673803</v>
+      </c>
+      <c r="AA51" s="28">
+        <f t="shared" si="14"/>
+        <v>0.52251467694673803</v>
+      </c>
       <c r="AB51" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.57683408772569622</v>
       </c>
     </row>
@@ -22277,40 +26482,40 @@
         <v>85</v>
       </c>
       <c r="S52" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.59307049784531918</v>
       </c>
       <c r="T52" s="28"/>
       <c r="U52" s="28">
-        <f>+S52</f>
+        <f t="shared" si="9"/>
         <v>0.59307049784531918</v>
       </c>
       <c r="V52" s="28">
-        <f>+K12</f>
-        <v>0.52511580739631625</v>
-      </c>
-      <c r="W52" s="28">
-        <f t="shared" si="1"/>
-        <v>0.52511580739631625</v>
-      </c>
-      <c r="X52" s="28">
-        <f t="shared" si="8"/>
-        <v>0.59307049784531918</v>
-      </c>
-      <c r="Y52" s="28">
-        <f t="shared" si="3"/>
-        <v>0.59307049784531918</v>
-      </c>
-      <c r="Z52" s="28">
-        <f t="shared" si="9"/>
-        <v>0.52511580739631625</v>
-      </c>
-      <c r="AA52" s="28">
         <f t="shared" si="10"/>
         <v>0.52511580739631625</v>
       </c>
+      <c r="W52" s="28">
+        <f t="shared" si="3"/>
+        <v>0.52511580739631625</v>
+      </c>
+      <c r="X52" s="28">
+        <f t="shared" si="12"/>
+        <v>0.59307049784531918</v>
+      </c>
+      <c r="Y52" s="28">
+        <f t="shared" si="5"/>
+        <v>0.59307049784531918</v>
+      </c>
+      <c r="Z52" s="28">
+        <f t="shared" si="13"/>
+        <v>0.52511580739631625</v>
+      </c>
+      <c r="AA52" s="28">
+        <f t="shared" si="14"/>
+        <v>0.52511580739631625</v>
+      </c>
       <c r="AB52" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.59307049784531918</v>
       </c>
     </row>
@@ -22344,40 +26549,40 @@
         <v>85</v>
       </c>
       <c r="S53" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.4817627379641512</v>
       </c>
       <c r="T53" s="28"/>
       <c r="U53" s="28">
-        <f>+S53</f>
+        <f t="shared" si="9"/>
         <v>0.4817627379641512</v>
       </c>
       <c r="V53" s="28">
-        <f>+K13</f>
-        <v>0.30878345674934271</v>
-      </c>
-      <c r="W53" s="28">
-        <f t="shared" si="1"/>
-        <v>0.30878345674934271</v>
-      </c>
-      <c r="X53" s="28">
-        <f t="shared" si="8"/>
-        <v>0.4817627379641512</v>
-      </c>
-      <c r="Y53" s="28">
-        <f t="shared" si="3"/>
-        <v>0.4817627379641512</v>
-      </c>
-      <c r="Z53" s="28">
-        <f t="shared" si="9"/>
-        <v>0.30878345674934271</v>
-      </c>
-      <c r="AA53" s="28">
         <f t="shared" si="10"/>
         <v>0.30878345674934271</v>
       </c>
+      <c r="W53" s="28">
+        <f t="shared" si="3"/>
+        <v>0.30878345674934271</v>
+      </c>
+      <c r="X53" s="28">
+        <f t="shared" si="12"/>
+        <v>0.4817627379641512</v>
+      </c>
+      <c r="Y53" s="28">
+        <f t="shared" si="5"/>
+        <v>0.4817627379641512</v>
+      </c>
+      <c r="Z53" s="28">
+        <f t="shared" si="13"/>
+        <v>0.30878345674934271</v>
+      </c>
+      <c r="AA53" s="28">
+        <f t="shared" si="14"/>
+        <v>0.30878345674934271</v>
+      </c>
       <c r="AB53" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.4817627379641512</v>
       </c>
     </row>
@@ -22411,40 +26616,40 @@
         <v>85</v>
       </c>
       <c r="S54" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.50818195730390581</v>
       </c>
       <c r="T54" s="28"/>
       <c r="U54" s="28">
-        <f>+S54</f>
+        <f t="shared" si="9"/>
         <v>0.50818195730390581</v>
       </c>
       <c r="V54" s="28">
-        <f>+K14</f>
-        <v>0.2962970291666881</v>
-      </c>
-      <c r="W54" s="28">
-        <f t="shared" si="1"/>
-        <v>0.2962970291666881</v>
-      </c>
-      <c r="X54" s="28">
-        <f t="shared" si="8"/>
-        <v>0.50818195730390581</v>
-      </c>
-      <c r="Y54" s="28">
-        <f t="shared" si="3"/>
-        <v>0.50818195730390581</v>
-      </c>
-      <c r="Z54" s="28">
-        <f t="shared" si="9"/>
-        <v>0.2962970291666881</v>
-      </c>
-      <c r="AA54" s="28">
         <f t="shared" si="10"/>
         <v>0.2962970291666881</v>
       </c>
+      <c r="W54" s="28">
+        <f t="shared" si="3"/>
+        <v>0.2962970291666881</v>
+      </c>
+      <c r="X54" s="28">
+        <f t="shared" si="12"/>
+        <v>0.50818195730390581</v>
+      </c>
+      <c r="Y54" s="28">
+        <f t="shared" si="5"/>
+        <v>0.50818195730390581</v>
+      </c>
+      <c r="Z54" s="28">
+        <f t="shared" si="13"/>
+        <v>0.2962970291666881</v>
+      </c>
+      <c r="AA54" s="28">
+        <f t="shared" si="14"/>
+        <v>0.2962970291666881</v>
+      </c>
       <c r="AB54" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.50818195730390581</v>
       </c>
     </row>
@@ -22478,40 +26683,40 @@
         <v>85</v>
       </c>
       <c r="S55" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.50842301702366877</v>
       </c>
       <c r="T55" s="28"/>
       <c r="U55" s="28">
-        <f>+S55</f>
+        <f t="shared" si="9"/>
         <v>0.50842301702366877</v>
       </c>
       <c r="V55" s="28">
-        <f>+K15</f>
-        <v>0.30469029666897296</v>
-      </c>
-      <c r="W55" s="28">
-        <f t="shared" si="1"/>
-        <v>0.30469029666897296</v>
-      </c>
-      <c r="X55" s="28">
-        <f t="shared" si="8"/>
-        <v>0.50842301702366877</v>
-      </c>
-      <c r="Y55" s="28">
-        <f t="shared" si="3"/>
-        <v>0.50842301702366877</v>
-      </c>
-      <c r="Z55" s="28">
-        <f t="shared" si="9"/>
-        <v>0.30469029666897296</v>
-      </c>
-      <c r="AA55" s="28">
         <f t="shared" si="10"/>
         <v>0.30469029666897296</v>
       </c>
+      <c r="W55" s="28">
+        <f t="shared" si="3"/>
+        <v>0.30469029666897296</v>
+      </c>
+      <c r="X55" s="28">
+        <f t="shared" si="12"/>
+        <v>0.50842301702366877</v>
+      </c>
+      <c r="Y55" s="28">
+        <f t="shared" si="5"/>
+        <v>0.50842301702366877</v>
+      </c>
+      <c r="Z55" s="28">
+        <f t="shared" si="13"/>
+        <v>0.30469029666897296</v>
+      </c>
+      <c r="AA55" s="28">
+        <f t="shared" si="14"/>
+        <v>0.30469029666897296</v>
+      </c>
       <c r="AB55" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.50842301702366877</v>
       </c>
     </row>
@@ -22545,40 +26750,40 @@
         <v>85</v>
       </c>
       <c r="S56" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.51348033482388111</v>
       </c>
       <c r="T56" s="28"/>
       <c r="U56" s="28">
-        <f>+S56</f>
+        <f t="shared" si="9"/>
         <v>0.51348033482388111</v>
       </c>
       <c r="V56" s="28">
-        <f>+K16</f>
-        <v>0.33632389555580439</v>
-      </c>
-      <c r="W56" s="28">
-        <f t="shared" si="1"/>
-        <v>0.33632389555580439</v>
-      </c>
-      <c r="X56" s="28">
-        <f t="shared" si="8"/>
-        <v>0.51348033482388111</v>
-      </c>
-      <c r="Y56" s="28">
-        <f t="shared" si="3"/>
-        <v>0.51348033482388111</v>
-      </c>
-      <c r="Z56" s="28">
-        <f t="shared" si="9"/>
-        <v>0.33632389555580439</v>
-      </c>
-      <c r="AA56" s="28">
         <f t="shared" si="10"/>
         <v>0.33632389555580439</v>
       </c>
+      <c r="W56" s="28">
+        <f t="shared" si="3"/>
+        <v>0.33632389555580439</v>
+      </c>
+      <c r="X56" s="28">
+        <f t="shared" si="12"/>
+        <v>0.51348033482388111</v>
+      </c>
+      <c r="Y56" s="28">
+        <f t="shared" si="5"/>
+        <v>0.51348033482388111</v>
+      </c>
+      <c r="Z56" s="28">
+        <f t="shared" si="13"/>
+        <v>0.33632389555580439</v>
+      </c>
+      <c r="AA56" s="28">
+        <f t="shared" si="14"/>
+        <v>0.33632389555580439</v>
+      </c>
       <c r="AB56" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.51348033482388111</v>
       </c>
     </row>
@@ -22612,40 +26817,40 @@
         <v>85</v>
       </c>
       <c r="S57" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.45452186819252904</v>
       </c>
       <c r="T57" s="28"/>
       <c r="U57" s="28">
-        <f>+S57</f>
+        <f t="shared" si="9"/>
         <v>0.45452186819252904</v>
       </c>
       <c r="V57" s="28">
-        <f>+K17</f>
-        <v>0.34519261752128416</v>
-      </c>
-      <c r="W57" s="28">
-        <f t="shared" si="1"/>
-        <v>0.34519261752128416</v>
-      </c>
-      <c r="X57" s="28">
-        <f t="shared" si="8"/>
-        <v>0.45452186819252904</v>
-      </c>
-      <c r="Y57" s="28">
-        <f t="shared" si="3"/>
-        <v>0.45452186819252904</v>
-      </c>
-      <c r="Z57" s="28">
-        <f t="shared" si="9"/>
-        <v>0.34519261752128416</v>
-      </c>
-      <c r="AA57" s="28">
         <f t="shared" si="10"/>
         <v>0.34519261752128416</v>
       </c>
+      <c r="W57" s="28">
+        <f t="shared" si="3"/>
+        <v>0.34519261752128416</v>
+      </c>
+      <c r="X57" s="28">
+        <f t="shared" si="12"/>
+        <v>0.45452186819252904</v>
+      </c>
+      <c r="Y57" s="28">
+        <f t="shared" si="5"/>
+        <v>0.45452186819252904</v>
+      </c>
+      <c r="Z57" s="28">
+        <f t="shared" si="13"/>
+        <v>0.34519261752128416</v>
+      </c>
+      <c r="AA57" s="28">
+        <f t="shared" si="14"/>
+        <v>0.34519261752128416</v>
+      </c>
       <c r="AB57" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.45452186819252904</v>
       </c>
     </row>
@@ -22679,40 +26884,40 @@
         <v>85</v>
       </c>
       <c r="S58" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.475231395013342</v>
       </c>
       <c r="T58" s="28"/>
       <c r="U58" s="28">
-        <f>+S58</f>
+        <f t="shared" si="9"/>
         <v>0.475231395013342</v>
       </c>
       <c r="V58" s="28">
-        <f>+K18</f>
-        <v>0.41621446207507262</v>
-      </c>
-      <c r="W58" s="28">
-        <f t="shared" si="1"/>
-        <v>0.41621446207507262</v>
-      </c>
-      <c r="X58" s="28">
-        <f t="shared" si="8"/>
-        <v>0.475231395013342</v>
-      </c>
-      <c r="Y58" s="28">
-        <f t="shared" si="3"/>
-        <v>0.475231395013342</v>
-      </c>
-      <c r="Z58" s="28">
-        <f t="shared" si="9"/>
-        <v>0.41621446207507262</v>
-      </c>
-      <c r="AA58" s="28">
         <f t="shared" si="10"/>
         <v>0.41621446207507262</v>
       </c>
+      <c r="W58" s="28">
+        <f t="shared" si="3"/>
+        <v>0.41621446207507262</v>
+      </c>
+      <c r="X58" s="28">
+        <f t="shared" si="12"/>
+        <v>0.475231395013342</v>
+      </c>
+      <c r="Y58" s="28">
+        <f t="shared" si="5"/>
+        <v>0.475231395013342</v>
+      </c>
+      <c r="Z58" s="28">
+        <f t="shared" si="13"/>
+        <v>0.41621446207507262</v>
+      </c>
+      <c r="AA58" s="28">
+        <f t="shared" si="14"/>
+        <v>0.41621446207507262</v>
+      </c>
       <c r="AB58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.475231395013342</v>
       </c>
     </row>
@@ -22746,40 +26951,40 @@
         <v>85</v>
       </c>
       <c r="S59" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.48870294875605585</v>
       </c>
       <c r="T59" s="28"/>
       <c r="U59" s="28">
-        <f>+S59</f>
+        <f t="shared" si="9"/>
         <v>0.48870294875605585</v>
       </c>
       <c r="V59" s="28">
-        <f>+K19</f>
-        <v>0.39755556181089052</v>
-      </c>
-      <c r="W59" s="28">
-        <f t="shared" si="1"/>
-        <v>0.39755556181089052</v>
-      </c>
-      <c r="X59" s="28">
-        <f t="shared" si="8"/>
-        <v>0.48870294875605585</v>
-      </c>
-      <c r="Y59" s="28">
-        <f t="shared" si="3"/>
-        <v>0.48870294875605585</v>
-      </c>
-      <c r="Z59" s="28">
-        <f t="shared" si="9"/>
-        <v>0.39755556181089052</v>
-      </c>
-      <c r="AA59" s="28">
         <f t="shared" si="10"/>
         <v>0.39755556181089052</v>
       </c>
+      <c r="W59" s="28">
+        <f t="shared" si="3"/>
+        <v>0.39755556181089052</v>
+      </c>
+      <c r="X59" s="28">
+        <f t="shared" si="12"/>
+        <v>0.48870294875605585</v>
+      </c>
+      <c r="Y59" s="28">
+        <f t="shared" si="5"/>
+        <v>0.48870294875605585</v>
+      </c>
+      <c r="Z59" s="28">
+        <f t="shared" si="13"/>
+        <v>0.39755556181089052</v>
+      </c>
+      <c r="AA59" s="28">
+        <f t="shared" si="14"/>
+        <v>0.39755556181089052</v>
+      </c>
       <c r="AB59" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.48870294875605585</v>
       </c>
     </row>
@@ -22813,40 +27018,40 @@
         <v>85</v>
       </c>
       <c r="S60" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.4766119382878205</v>
       </c>
       <c r="T60" s="28"/>
       <c r="U60" s="28">
-        <f>+S60</f>
+        <f t="shared" si="9"/>
         <v>0.4766119382878205</v>
       </c>
       <c r="V60" s="28">
-        <f>+K20</f>
-        <v>0.38855882243991424</v>
-      </c>
-      <c r="W60" s="28">
-        <f t="shared" si="1"/>
-        <v>0.38855882243991424</v>
-      </c>
-      <c r="X60" s="28">
-        <f t="shared" si="8"/>
-        <v>0.4766119382878205</v>
-      </c>
-      <c r="Y60" s="28">
-        <f t="shared" si="3"/>
-        <v>0.4766119382878205</v>
-      </c>
-      <c r="Z60" s="28">
-        <f t="shared" si="9"/>
-        <v>0.38855882243991424</v>
-      </c>
-      <c r="AA60" s="28">
         <f t="shared" si="10"/>
         <v>0.38855882243991424</v>
       </c>
+      <c r="W60" s="28">
+        <f t="shared" si="3"/>
+        <v>0.38855882243991424</v>
+      </c>
+      <c r="X60" s="28">
+        <f t="shared" si="12"/>
+        <v>0.4766119382878205</v>
+      </c>
+      <c r="Y60" s="28">
+        <f t="shared" si="5"/>
+        <v>0.4766119382878205</v>
+      </c>
+      <c r="Z60" s="28">
+        <f t="shared" si="13"/>
+        <v>0.38855882243991424</v>
+      </c>
+      <c r="AA60" s="28">
+        <f t="shared" si="14"/>
+        <v>0.38855882243991424</v>
+      </c>
       <c r="AB60" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.4766119382878205</v>
       </c>
     </row>
@@ -22880,40 +27085,40 @@
         <v>85</v>
       </c>
       <c r="S61" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.46985512148372199</v>
       </c>
       <c r="T61" s="28"/>
       <c r="U61" s="28">
-        <f>+S61</f>
+        <f t="shared" si="9"/>
         <v>0.46985512148372199</v>
       </c>
       <c r="V61" s="28">
-        <f>+K21</f>
-        <v>0.40893762763368313</v>
-      </c>
-      <c r="W61" s="28">
-        <f t="shared" si="1"/>
-        <v>0.40893762763368313</v>
-      </c>
-      <c r="X61" s="28">
-        <f t="shared" si="8"/>
-        <v>0.46985512148372199</v>
-      </c>
-      <c r="Y61" s="28">
-        <f t="shared" si="3"/>
-        <v>0.46985512148372199</v>
-      </c>
-      <c r="Z61" s="28">
-        <f t="shared" si="9"/>
-        <v>0.40893762763368313</v>
-      </c>
-      <c r="AA61" s="28">
         <f t="shared" si="10"/>
         <v>0.40893762763368313</v>
       </c>
+      <c r="W61" s="28">
+        <f t="shared" si="3"/>
+        <v>0.40893762763368313</v>
+      </c>
+      <c r="X61" s="28">
+        <f t="shared" si="12"/>
+        <v>0.46985512148372199</v>
+      </c>
+      <c r="Y61" s="28">
+        <f t="shared" si="5"/>
+        <v>0.46985512148372199</v>
+      </c>
+      <c r="Z61" s="28">
+        <f t="shared" si="13"/>
+        <v>0.40893762763368313</v>
+      </c>
+      <c r="AA61" s="28">
+        <f t="shared" si="14"/>
+        <v>0.40893762763368313</v>
+      </c>
       <c r="AB61" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.46985512148372199</v>
       </c>
     </row>
@@ -22947,40 +27152,40 @@
         <v>85</v>
       </c>
       <c r="S62" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.48066950413908688</v>
       </c>
       <c r="T62" s="28"/>
       <c r="U62" s="28">
-        <f>+S62</f>
+        <f t="shared" si="9"/>
         <v>0.48066950413908688</v>
       </c>
       <c r="V62" s="28">
-        <f>+K22</f>
-        <v>0.41646056486719674</v>
-      </c>
-      <c r="W62" s="28">
-        <f t="shared" si="1"/>
-        <v>0.41646056486719674</v>
-      </c>
-      <c r="X62" s="28">
-        <f t="shared" si="8"/>
-        <v>0.48066950413908688</v>
-      </c>
-      <c r="Y62" s="28">
-        <f t="shared" si="3"/>
-        <v>0.48066950413908688</v>
-      </c>
-      <c r="Z62" s="28">
-        <f t="shared" si="9"/>
-        <v>0.41646056486719674</v>
-      </c>
-      <c r="AA62" s="28">
         <f t="shared" si="10"/>
         <v>0.41646056486719674</v>
       </c>
+      <c r="W62" s="28">
+        <f t="shared" si="3"/>
+        <v>0.41646056486719674</v>
+      </c>
+      <c r="X62" s="28">
+        <f t="shared" si="12"/>
+        <v>0.48066950413908688</v>
+      </c>
+      <c r="Y62" s="28">
+        <f t="shared" si="5"/>
+        <v>0.48066950413908688</v>
+      </c>
+      <c r="Z62" s="28">
+        <f t="shared" si="13"/>
+        <v>0.41646056486719674</v>
+      </c>
+      <c r="AA62" s="28">
+        <f t="shared" si="14"/>
+        <v>0.41646056486719674</v>
+      </c>
       <c r="AB62" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.48066950413908688</v>
       </c>
     </row>
@@ -23014,40 +27219,40 @@
         <v>85</v>
       </c>
       <c r="S63" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.3130659638214161</v>
       </c>
       <c r="T63" s="28"/>
       <c r="U63" s="28">
-        <f>+S63</f>
+        <f t="shared" si="9"/>
         <v>0.3130659638214161</v>
       </c>
       <c r="V63" s="28">
-        <f>+K23</f>
-        <v>0.41936313030572953</v>
-      </c>
-      <c r="W63" s="28">
-        <f t="shared" si="1"/>
-        <v>0.41936313030572953</v>
-      </c>
-      <c r="X63" s="28">
-        <f t="shared" si="8"/>
-        <v>0.3130659638214161</v>
-      </c>
-      <c r="Y63" s="28">
-        <f t="shared" si="3"/>
-        <v>0.3130659638214161</v>
-      </c>
-      <c r="Z63" s="28">
-        <f t="shared" si="9"/>
-        <v>0.41936313030572953</v>
-      </c>
-      <c r="AA63" s="28">
         <f t="shared" si="10"/>
         <v>0.41936313030572953</v>
       </c>
+      <c r="W63" s="28">
+        <f t="shared" si="3"/>
+        <v>0.41936313030572953</v>
+      </c>
+      <c r="X63" s="28">
+        <f t="shared" si="12"/>
+        <v>0.3130659638214161</v>
+      </c>
+      <c r="Y63" s="28">
+        <f t="shared" si="5"/>
+        <v>0.3130659638214161</v>
+      </c>
+      <c r="Z63" s="28">
+        <f t="shared" si="13"/>
+        <v>0.41936313030572953</v>
+      </c>
+      <c r="AA63" s="28">
+        <f t="shared" si="14"/>
+        <v>0.41936313030572953</v>
+      </c>
       <c r="AB63" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.3130659638214161</v>
       </c>
     </row>
@@ -23081,40 +27286,40 @@
         <v>85</v>
       </c>
       <c r="S64" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.3119153988766723</v>
       </c>
       <c r="T64" s="28"/>
       <c r="U64" s="28">
-        <f>+S64</f>
+        <f t="shared" si="9"/>
         <v>0.3119153988766723</v>
       </c>
       <c r="V64" s="28">
-        <f>+K24</f>
-        <v>0.36954358321077418</v>
-      </c>
-      <c r="W64" s="28">
-        <f t="shared" si="1"/>
-        <v>0.36954358321077418</v>
-      </c>
-      <c r="X64" s="28">
-        <f t="shared" si="8"/>
-        <v>0.3119153988766723</v>
-      </c>
-      <c r="Y64" s="28">
-        <f t="shared" si="3"/>
-        <v>0.3119153988766723</v>
-      </c>
-      <c r="Z64" s="28">
-        <f t="shared" si="9"/>
-        <v>0.36954358321077418</v>
-      </c>
-      <c r="AA64" s="28">
         <f t="shared" si="10"/>
         <v>0.36954358321077418</v>
       </c>
+      <c r="W64" s="28">
+        <f t="shared" si="3"/>
+        <v>0.36954358321077418</v>
+      </c>
+      <c r="X64" s="28">
+        <f t="shared" si="12"/>
+        <v>0.3119153988766723</v>
+      </c>
+      <c r="Y64" s="28">
+        <f t="shared" si="5"/>
+        <v>0.3119153988766723</v>
+      </c>
+      <c r="Z64" s="28">
+        <f t="shared" si="13"/>
+        <v>0.36954358321077418</v>
+      </c>
+      <c r="AA64" s="28">
+        <f t="shared" si="14"/>
+        <v>0.36954358321077418</v>
+      </c>
       <c r="AB64" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.3119153988766723</v>
       </c>
     </row>
@@ -23148,40 +27353,40 @@
         <v>85</v>
       </c>
       <c r="S65" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.33086580657339631</v>
       </c>
       <c r="T65" s="28"/>
       <c r="U65" s="28">
-        <f>+S65</f>
+        <f t="shared" si="9"/>
         <v>0.33086580657339631</v>
       </c>
       <c r="V65" s="28">
-        <f>+K25</f>
-        <v>0.37026892593321853</v>
-      </c>
-      <c r="W65" s="28">
-        <f t="shared" si="1"/>
-        <v>0.37026892593321853</v>
-      </c>
-      <c r="X65" s="28">
-        <f t="shared" si="8"/>
-        <v>0.33086580657339631</v>
-      </c>
-      <c r="Y65" s="28">
-        <f t="shared" si="3"/>
-        <v>0.33086580657339631</v>
-      </c>
-      <c r="Z65" s="28">
-        <f t="shared" si="9"/>
-        <v>0.37026892593321853</v>
-      </c>
-      <c r="AA65" s="28">
         <f t="shared" si="10"/>
         <v>0.37026892593321853</v>
       </c>
+      <c r="W65" s="28">
+        <f t="shared" si="3"/>
+        <v>0.37026892593321853</v>
+      </c>
+      <c r="X65" s="28">
+        <f t="shared" si="12"/>
+        <v>0.33086580657339631</v>
+      </c>
+      <c r="Y65" s="28">
+        <f t="shared" si="5"/>
+        <v>0.33086580657339631</v>
+      </c>
+      <c r="Z65" s="28">
+        <f t="shared" si="13"/>
+        <v>0.37026892593321853</v>
+      </c>
+      <c r="AA65" s="28">
+        <f t="shared" si="14"/>
+        <v>0.37026892593321853</v>
+      </c>
       <c r="AB65" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.33086580657339631</v>
       </c>
     </row>
@@ -23215,40 +27420,40 @@
         <v>85</v>
       </c>
       <c r="S66" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.37821886122347192</v>
       </c>
       <c r="T66" s="28"/>
       <c r="U66" s="28">
-        <f>+S66</f>
+        <f t="shared" si="9"/>
         <v>0.37821886122347192</v>
       </c>
       <c r="V66" s="28">
-        <f>+K26</f>
-        <v>0.39745443176838224</v>
-      </c>
-      <c r="W66" s="28">
-        <f t="shared" si="1"/>
-        <v>0.39745443176838224</v>
-      </c>
-      <c r="X66" s="28">
-        <f t="shared" si="8"/>
-        <v>0.37821886122347192</v>
-      </c>
-      <c r="Y66" s="28">
-        <f t="shared" si="3"/>
-        <v>0.37821886122347192</v>
-      </c>
-      <c r="Z66" s="28">
-        <f t="shared" si="9"/>
-        <v>0.39745443176838224</v>
-      </c>
-      <c r="AA66" s="28">
         <f t="shared" si="10"/>
         <v>0.39745443176838224</v>
       </c>
+      <c r="W66" s="28">
+        <f t="shared" si="3"/>
+        <v>0.39745443176838224</v>
+      </c>
+      <c r="X66" s="28">
+        <f t="shared" si="12"/>
+        <v>0.37821886122347192</v>
+      </c>
+      <c r="Y66" s="28">
+        <f t="shared" si="5"/>
+        <v>0.37821886122347192</v>
+      </c>
+      <c r="Z66" s="28">
+        <f t="shared" si="13"/>
+        <v>0.39745443176838224</v>
+      </c>
+      <c r="AA66" s="28">
+        <f t="shared" si="14"/>
+        <v>0.39745443176838224</v>
+      </c>
       <c r="AB66" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.37821886122347192</v>
       </c>
     </row>
@@ -23282,40 +27487,40 @@
         <v>85</v>
       </c>
       <c r="S67" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.36869849629847962</v>
       </c>
       <c r="T67" s="28"/>
       <c r="U67" s="28">
-        <f>+S67</f>
+        <f t="shared" ref="U67:U82" si="16">+S67</f>
         <v>0.36869849629847962</v>
       </c>
       <c r="V67" s="28">
-        <f>+K27</f>
-        <v>0.38982131137548681</v>
-      </c>
-      <c r="W67" s="28">
-        <f t="shared" si="1"/>
-        <v>0.38982131137548681</v>
-      </c>
-      <c r="X67" s="28">
-        <f t="shared" si="8"/>
-        <v>0.36869849629847962</v>
-      </c>
-      <c r="Y67" s="28">
-        <f t="shared" si="3"/>
-        <v>0.36869849629847962</v>
-      </c>
-      <c r="Z67" s="28">
-        <f t="shared" si="9"/>
-        <v>0.38982131137548681</v>
-      </c>
-      <c r="AA67" s="28">
         <f t="shared" si="10"/>
         <v>0.38982131137548681</v>
       </c>
+      <c r="W67" s="28">
+        <f t="shared" si="3"/>
+        <v>0.38982131137548681</v>
+      </c>
+      <c r="X67" s="28">
+        <f t="shared" si="12"/>
+        <v>0.36869849629847962</v>
+      </c>
+      <c r="Y67" s="28">
+        <f t="shared" si="5"/>
+        <v>0.36869849629847962</v>
+      </c>
+      <c r="Z67" s="28">
+        <f t="shared" si="13"/>
+        <v>0.38982131137548681</v>
+      </c>
+      <c r="AA67" s="28">
+        <f t="shared" si="14"/>
+        <v>0.38982131137548681</v>
+      </c>
       <c r="AB67" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.36869849629847962</v>
       </c>
     </row>
@@ -23349,40 +27554,40 @@
         <v>85</v>
       </c>
       <c r="S68" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.34810656235229986</v>
       </c>
       <c r="T68" s="28"/>
       <c r="U68" s="28">
-        <f>+S68</f>
+        <f t="shared" si="16"/>
         <v>0.34810656235229986</v>
       </c>
       <c r="V68" s="28">
-        <f>+K28</f>
-        <v>0.38578621124176921</v>
-      </c>
-      <c r="W68" s="28">
-        <f t="shared" ref="W68:W82" si="12">+V68</f>
-        <v>0.38578621124176921</v>
-      </c>
-      <c r="X68" s="28">
-        <f t="shared" si="8"/>
-        <v>0.34810656235229986</v>
-      </c>
-      <c r="Y68" s="28">
-        <f t="shared" ref="Y68:Y82" si="13">+X68</f>
-        <v>0.34810656235229986</v>
-      </c>
-      <c r="Z68" s="28">
-        <f t="shared" si="9"/>
-        <v>0.38578621124176921</v>
-      </c>
-      <c r="AA68" s="28">
         <f t="shared" si="10"/>
         <v>0.38578621124176921</v>
       </c>
+      <c r="W68" s="28">
+        <f t="shared" ref="W68:W82" si="17">+V68</f>
+        <v>0.38578621124176921</v>
+      </c>
+      <c r="X68" s="28">
+        <f t="shared" si="12"/>
+        <v>0.34810656235229986</v>
+      </c>
+      <c r="Y68" s="28">
+        <f t="shared" ref="Y68:Y82" si="18">+X68</f>
+        <v>0.34810656235229986</v>
+      </c>
+      <c r="Z68" s="28">
+        <f t="shared" si="13"/>
+        <v>0.38578621124176921</v>
+      </c>
+      <c r="AA68" s="28">
+        <f t="shared" si="14"/>
+        <v>0.38578621124176921</v>
+      </c>
       <c r="AB68" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.34810656235229986</v>
       </c>
     </row>
@@ -23416,40 +27621,40 @@
         <v>85</v>
       </c>
       <c r="S69" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.32861383554560969</v>
       </c>
       <c r="T69" s="28"/>
       <c r="U69" s="28">
-        <f>+S69</f>
+        <f t="shared" si="16"/>
         <v>0.32861383554560969</v>
       </c>
       <c r="V69" s="28">
-        <f>+K29</f>
-        <v>0.38455927230153636</v>
-      </c>
-      <c r="W69" s="28">
-        <f t="shared" si="12"/>
-        <v>0.38455927230153636</v>
-      </c>
-      <c r="X69" s="28">
-        <f t="shared" si="8"/>
-        <v>0.32861383554560969</v>
-      </c>
-      <c r="Y69" s="28">
-        <f t="shared" si="13"/>
-        <v>0.32861383554560969</v>
-      </c>
-      <c r="Z69" s="28">
-        <f t="shared" si="9"/>
-        <v>0.38455927230153636</v>
-      </c>
-      <c r="AA69" s="28">
         <f t="shared" si="10"/>
         <v>0.38455927230153636</v>
       </c>
+      <c r="W69" s="28">
+        <f t="shared" si="17"/>
+        <v>0.38455927230153636</v>
+      </c>
+      <c r="X69" s="28">
+        <f t="shared" si="12"/>
+        <v>0.32861383554560969</v>
+      </c>
+      <c r="Y69" s="28">
+        <f t="shared" si="18"/>
+        <v>0.32861383554560969</v>
+      </c>
+      <c r="Z69" s="28">
+        <f t="shared" si="13"/>
+        <v>0.38455927230153636</v>
+      </c>
+      <c r="AA69" s="28">
+        <f t="shared" si="14"/>
+        <v>0.38455927230153636</v>
+      </c>
       <c r="AB69" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.32861383554560969</v>
       </c>
     </row>
@@ -23483,40 +27688,40 @@
         <v>85</v>
       </c>
       <c r="S70" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.30968591412981</v>
       </c>
       <c r="T70" s="28"/>
       <c r="U70" s="28">
-        <f>+S70</f>
+        <f t="shared" si="16"/>
         <v>0.30968591412981</v>
       </c>
       <c r="V70" s="28">
-        <f>+K30</f>
-        <v>0.37577278711276341</v>
-      </c>
-      <c r="W70" s="28">
-        <f t="shared" si="12"/>
-        <v>0.37577278711276341</v>
-      </c>
-      <c r="X70" s="28">
-        <f t="shared" si="8"/>
-        <v>0.30968591412981</v>
-      </c>
-      <c r="Y70" s="28">
-        <f t="shared" si="13"/>
-        <v>0.30968591412981</v>
-      </c>
-      <c r="Z70" s="28">
-        <f t="shared" si="9"/>
-        <v>0.37577278711276341</v>
-      </c>
-      <c r="AA70" s="28">
         <f t="shared" si="10"/>
         <v>0.37577278711276341</v>
       </c>
+      <c r="W70" s="28">
+        <f t="shared" si="17"/>
+        <v>0.37577278711276341</v>
+      </c>
+      <c r="X70" s="28">
+        <f t="shared" si="12"/>
+        <v>0.30968591412981</v>
+      </c>
+      <c r="Y70" s="28">
+        <f t="shared" si="18"/>
+        <v>0.30968591412981</v>
+      </c>
+      <c r="Z70" s="28">
+        <f t="shared" si="13"/>
+        <v>0.37577278711276341</v>
+      </c>
+      <c r="AA70" s="28">
+        <f t="shared" si="14"/>
+        <v>0.37577278711276341</v>
+      </c>
       <c r="AB70" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.30968591412981</v>
       </c>
     </row>
@@ -23550,40 +27755,40 @@
         <v>85</v>
       </c>
       <c r="S71" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.32026270703997833</v>
       </c>
       <c r="T71" s="28"/>
       <c r="U71" s="28">
-        <f>+S71</f>
+        <f t="shared" si="16"/>
         <v>0.32026270703997833</v>
       </c>
       <c r="V71" s="28">
-        <f>+K31</f>
-        <v>0.38496176804649979</v>
-      </c>
-      <c r="W71" s="28">
-        <f t="shared" si="12"/>
-        <v>0.38496176804649979</v>
-      </c>
-      <c r="X71" s="28">
-        <f t="shared" si="8"/>
-        <v>0.32026270703997833</v>
-      </c>
-      <c r="Y71" s="28">
-        <f t="shared" si="13"/>
-        <v>0.32026270703997833</v>
-      </c>
-      <c r="Z71" s="28">
-        <f t="shared" si="9"/>
-        <v>0.38496176804649979</v>
-      </c>
-      <c r="AA71" s="28">
         <f t="shared" si="10"/>
         <v>0.38496176804649979</v>
       </c>
+      <c r="W71" s="28">
+        <f t="shared" si="17"/>
+        <v>0.38496176804649979</v>
+      </c>
+      <c r="X71" s="28">
+        <f t="shared" si="12"/>
+        <v>0.32026270703997833</v>
+      </c>
+      <c r="Y71" s="28">
+        <f t="shared" si="18"/>
+        <v>0.32026270703997833</v>
+      </c>
+      <c r="Z71" s="28">
+        <f t="shared" si="13"/>
+        <v>0.38496176804649979</v>
+      </c>
+      <c r="AA71" s="28">
+        <f t="shared" si="14"/>
+        <v>0.38496176804649979</v>
+      </c>
       <c r="AB71" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.32026270703997833</v>
       </c>
     </row>
@@ -23617,40 +27822,40 @@
         <v>85</v>
       </c>
       <c r="S72" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.32745693333412318</v>
       </c>
       <c r="T72" s="28"/>
       <c r="U72" s="28">
-        <f>+S72</f>
+        <f t="shared" si="16"/>
         <v>0.32745693333412318</v>
       </c>
       <c r="V72" s="28">
-        <f>+K32</f>
-        <v>0.39047657238907701</v>
-      </c>
-      <c r="W72" s="28">
-        <f t="shared" si="12"/>
-        <v>0.39047657238907701</v>
-      </c>
-      <c r="X72" s="28">
-        <f t="shared" si="8"/>
-        <v>0.32745693333412318</v>
-      </c>
-      <c r="Y72" s="28">
-        <f t="shared" si="13"/>
-        <v>0.32745693333412318</v>
-      </c>
-      <c r="Z72" s="28">
-        <f t="shared" si="9"/>
-        <v>0.39047657238907701</v>
-      </c>
-      <c r="AA72" s="28">
         <f t="shared" si="10"/>
         <v>0.39047657238907701</v>
       </c>
+      <c r="W72" s="28">
+        <f t="shared" si="17"/>
+        <v>0.39047657238907701</v>
+      </c>
+      <c r="X72" s="28">
+        <f t="shared" si="12"/>
+        <v>0.32745693333412318</v>
+      </c>
+      <c r="Y72" s="28">
+        <f t="shared" si="18"/>
+        <v>0.32745693333412318</v>
+      </c>
+      <c r="Z72" s="28">
+        <f t="shared" si="13"/>
+        <v>0.39047657238907701</v>
+      </c>
+      <c r="AA72" s="28">
+        <f t="shared" si="14"/>
+        <v>0.39047657238907701</v>
+      </c>
       <c r="AB72" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.32745693333412318</v>
       </c>
     </row>
@@ -23684,40 +27889,40 @@
         <v>85</v>
       </c>
       <c r="S73" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.57555554212089</v>
       </c>
       <c r="T73" s="28"/>
       <c r="U73" s="28">
-        <f>+S73</f>
+        <f t="shared" si="16"/>
         <v>0.57555554212089</v>
       </c>
       <c r="V73" s="28">
-        <f>+K33</f>
-        <v>0.33215033847367853</v>
-      </c>
-      <c r="W73" s="28">
-        <f t="shared" si="12"/>
-        <v>0.33215033847367853</v>
-      </c>
-      <c r="X73" s="28">
-        <f t="shared" si="8"/>
-        <v>0.57555554212089</v>
-      </c>
-      <c r="Y73" s="28">
-        <f t="shared" si="13"/>
-        <v>0.57555554212089</v>
-      </c>
-      <c r="Z73" s="28">
-        <f t="shared" si="9"/>
-        <v>0.33215033847367853</v>
-      </c>
-      <c r="AA73" s="28">
         <f t="shared" si="10"/>
         <v>0.33215033847367853</v>
       </c>
+      <c r="W73" s="28">
+        <f t="shared" si="17"/>
+        <v>0.33215033847367853</v>
+      </c>
+      <c r="X73" s="28">
+        <f t="shared" si="12"/>
+        <v>0.57555554212089</v>
+      </c>
+      <c r="Y73" s="28">
+        <f t="shared" si="18"/>
+        <v>0.57555554212089</v>
+      </c>
+      <c r="Z73" s="28">
+        <f t="shared" si="13"/>
+        <v>0.33215033847367853</v>
+      </c>
+      <c r="AA73" s="28">
+        <f t="shared" si="14"/>
+        <v>0.33215033847367853</v>
+      </c>
       <c r="AB73" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.57555554212089</v>
       </c>
     </row>
@@ -23751,40 +27956,40 @@
         <v>85</v>
       </c>
       <c r="S74" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.56304517784615371</v>
       </c>
       <c r="T74" s="28"/>
       <c r="U74" s="28">
-        <f>+S74</f>
+        <f t="shared" si="16"/>
         <v>0.56304517784615371</v>
       </c>
       <c r="V74" s="28">
-        <f>+K34</f>
-        <v>0.35001587998773448</v>
-      </c>
-      <c r="W74" s="28">
-        <f t="shared" si="12"/>
-        <v>0.35001587998773448</v>
-      </c>
-      <c r="X74" s="28">
-        <f t="shared" si="8"/>
-        <v>0.56304517784615371</v>
-      </c>
-      <c r="Y74" s="28">
-        <f t="shared" si="13"/>
-        <v>0.56304517784615371</v>
-      </c>
-      <c r="Z74" s="28">
-        <f t="shared" si="9"/>
-        <v>0.35001587998773448</v>
-      </c>
-      <c r="AA74" s="28">
         <f t="shared" si="10"/>
         <v>0.35001587998773448</v>
       </c>
+      <c r="W74" s="28">
+        <f t="shared" si="17"/>
+        <v>0.35001587998773448</v>
+      </c>
+      <c r="X74" s="28">
+        <f t="shared" si="12"/>
+        <v>0.56304517784615371</v>
+      </c>
+      <c r="Y74" s="28">
+        <f t="shared" si="18"/>
+        <v>0.56304517784615371</v>
+      </c>
+      <c r="Z74" s="28">
+        <f t="shared" si="13"/>
+        <v>0.35001587998773448</v>
+      </c>
+      <c r="AA74" s="28">
+        <f t="shared" si="14"/>
+        <v>0.35001587998773448</v>
+      </c>
       <c r="AB74" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.56304517784615371</v>
       </c>
     </row>
@@ -23818,40 +28023,40 @@
         <v>85</v>
       </c>
       <c r="S75" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.55918543764121331</v>
       </c>
       <c r="T75" s="28"/>
       <c r="U75" s="28">
-        <f>+S75</f>
+        <f t="shared" si="16"/>
         <v>0.55918543764121331</v>
       </c>
       <c r="V75" s="28">
-        <f>+K35</f>
-        <v>0.35067479658519785</v>
-      </c>
-      <c r="W75" s="28">
-        <f t="shared" si="12"/>
-        <v>0.35067479658519785</v>
-      </c>
-      <c r="X75" s="28">
-        <f t="shared" si="8"/>
-        <v>0.55918543764121331</v>
-      </c>
-      <c r="Y75" s="28">
-        <f t="shared" si="13"/>
-        <v>0.55918543764121331</v>
-      </c>
-      <c r="Z75" s="28">
-        <f t="shared" si="9"/>
-        <v>0.35067479658519785</v>
-      </c>
-      <c r="AA75" s="28">
         <f t="shared" si="10"/>
         <v>0.35067479658519785</v>
       </c>
+      <c r="W75" s="28">
+        <f t="shared" si="17"/>
+        <v>0.35067479658519785</v>
+      </c>
+      <c r="X75" s="28">
+        <f t="shared" si="12"/>
+        <v>0.55918543764121331</v>
+      </c>
+      <c r="Y75" s="28">
+        <f t="shared" si="18"/>
+        <v>0.55918543764121331</v>
+      </c>
+      <c r="Z75" s="28">
+        <f t="shared" si="13"/>
+        <v>0.35067479658519785</v>
+      </c>
+      <c r="AA75" s="28">
+        <f t="shared" si="14"/>
+        <v>0.35067479658519785</v>
+      </c>
       <c r="AB75" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.55918543764121331</v>
       </c>
     </row>
@@ -23885,40 +28090,40 @@
         <v>85</v>
       </c>
       <c r="S76" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.54662912966292942</v>
       </c>
       <c r="T76" s="28"/>
       <c r="U76" s="28">
-        <f>+S76</f>
+        <f t="shared" si="16"/>
         <v>0.54662912966292942</v>
       </c>
       <c r="V76" s="28">
-        <f>+K36</f>
-        <v>0.35939285856305131</v>
-      </c>
-      <c r="W76" s="28">
-        <f t="shared" si="12"/>
-        <v>0.35939285856305131</v>
-      </c>
-      <c r="X76" s="28">
-        <f t="shared" si="8"/>
-        <v>0.54662912966292942</v>
-      </c>
-      <c r="Y76" s="28">
-        <f t="shared" si="13"/>
-        <v>0.54662912966292942</v>
-      </c>
-      <c r="Z76" s="28">
-        <f t="shared" si="9"/>
-        <v>0.35939285856305131</v>
-      </c>
-      <c r="AA76" s="28">
         <f t="shared" si="10"/>
         <v>0.35939285856305131</v>
       </c>
+      <c r="W76" s="28">
+        <f t="shared" si="17"/>
+        <v>0.35939285856305131</v>
+      </c>
+      <c r="X76" s="28">
+        <f t="shared" si="12"/>
+        <v>0.54662912966292942</v>
+      </c>
+      <c r="Y76" s="28">
+        <f t="shared" si="18"/>
+        <v>0.54662912966292942</v>
+      </c>
+      <c r="Z76" s="28">
+        <f t="shared" si="13"/>
+        <v>0.35939285856305131</v>
+      </c>
+      <c r="AA76" s="28">
+        <f t="shared" si="14"/>
+        <v>0.35939285856305131</v>
+      </c>
       <c r="AB76" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.54662912966292942</v>
       </c>
     </row>
@@ -23952,40 +28157,40 @@
         <v>85</v>
       </c>
       <c r="S77" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.54952706757150638</v>
       </c>
       <c r="T77" s="28"/>
       <c r="U77" s="28">
-        <f>+S77</f>
+        <f t="shared" si="16"/>
         <v>0.54952706757150638</v>
       </c>
       <c r="V77" s="28">
-        <f>+K37</f>
-        <v>0.39986718528321008</v>
-      </c>
-      <c r="W77" s="28">
-        <f t="shared" si="12"/>
-        <v>0.39986718528321008</v>
-      </c>
-      <c r="X77" s="28">
-        <f t="shared" si="8"/>
-        <v>0.54952706757150638</v>
-      </c>
-      <c r="Y77" s="28">
-        <f t="shared" si="13"/>
-        <v>0.54952706757150638</v>
-      </c>
-      <c r="Z77" s="28">
-        <f t="shared" si="9"/>
-        <v>0.39986718528321008</v>
-      </c>
-      <c r="AA77" s="28">
         <f t="shared" si="10"/>
         <v>0.39986718528321008</v>
       </c>
+      <c r="W77" s="28">
+        <f t="shared" si="17"/>
+        <v>0.39986718528321008</v>
+      </c>
+      <c r="X77" s="28">
+        <f t="shared" si="12"/>
+        <v>0.54952706757150638</v>
+      </c>
+      <c r="Y77" s="28">
+        <f t="shared" si="18"/>
+        <v>0.54952706757150638</v>
+      </c>
+      <c r="Z77" s="28">
+        <f t="shared" si="13"/>
+        <v>0.39986718528321008</v>
+      </c>
+      <c r="AA77" s="28">
+        <f t="shared" si="14"/>
+        <v>0.39986718528321008</v>
+      </c>
       <c r="AB77" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.54952706757150638</v>
       </c>
     </row>
@@ -24019,40 +28224,40 @@
         <v>85</v>
       </c>
       <c r="S78" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.61415834527414648</v>
       </c>
       <c r="T78" s="28"/>
       <c r="U78" s="28">
-        <f>+S78</f>
+        <f t="shared" si="16"/>
         <v>0.61415834527414648</v>
       </c>
       <c r="V78" s="28">
-        <f>+K38</f>
-        <v>0.42972200522784365</v>
-      </c>
-      <c r="W78" s="28">
-        <f t="shared" si="12"/>
-        <v>0.42972200522784365</v>
-      </c>
-      <c r="X78" s="28">
-        <f t="shared" si="8"/>
-        <v>0.61415834527414648</v>
-      </c>
-      <c r="Y78" s="28">
-        <f t="shared" si="13"/>
-        <v>0.61415834527414648</v>
-      </c>
-      <c r="Z78" s="28">
-        <f t="shared" si="9"/>
-        <v>0.42972200522784365</v>
-      </c>
-      <c r="AA78" s="28">
         <f t="shared" si="10"/>
         <v>0.42972200522784365</v>
       </c>
+      <c r="W78" s="28">
+        <f t="shared" si="17"/>
+        <v>0.42972200522784365</v>
+      </c>
+      <c r="X78" s="28">
+        <f t="shared" si="12"/>
+        <v>0.61415834527414648</v>
+      </c>
+      <c r="Y78" s="28">
+        <f t="shared" si="18"/>
+        <v>0.61415834527414648</v>
+      </c>
+      <c r="Z78" s="28">
+        <f t="shared" si="13"/>
+        <v>0.42972200522784365</v>
+      </c>
+      <c r="AA78" s="28">
+        <f t="shared" si="14"/>
+        <v>0.42972200522784365</v>
+      </c>
       <c r="AB78" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.61415834527414648</v>
       </c>
     </row>
@@ -24086,40 +28291,40 @@
         <v>85</v>
       </c>
       <c r="S79" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.63877084797245176</v>
       </c>
       <c r="T79" s="28"/>
       <c r="U79" s="28">
-        <f>+S79</f>
+        <f t="shared" si="16"/>
         <v>0.63877084797245176</v>
       </c>
       <c r="V79" s="28">
-        <f>+K39</f>
-        <v>0.41244304796631842</v>
-      </c>
-      <c r="W79" s="28">
-        <f t="shared" si="12"/>
-        <v>0.41244304796631842</v>
-      </c>
-      <c r="X79" s="28">
-        <f t="shared" si="8"/>
-        <v>0.63877084797245176</v>
-      </c>
-      <c r="Y79" s="28">
-        <f t="shared" si="13"/>
-        <v>0.63877084797245176</v>
-      </c>
-      <c r="Z79" s="28">
-        <f t="shared" si="9"/>
-        <v>0.41244304796631842</v>
-      </c>
-      <c r="AA79" s="28">
         <f t="shared" si="10"/>
         <v>0.41244304796631842</v>
       </c>
+      <c r="W79" s="28">
+        <f t="shared" si="17"/>
+        <v>0.41244304796631842</v>
+      </c>
+      <c r="X79" s="28">
+        <f t="shared" si="12"/>
+        <v>0.63877084797245176</v>
+      </c>
+      <c r="Y79" s="28">
+        <f t="shared" si="18"/>
+        <v>0.63877084797245176</v>
+      </c>
+      <c r="Z79" s="28">
+        <f t="shared" si="13"/>
+        <v>0.41244304796631842</v>
+      </c>
+      <c r="AA79" s="28">
+        <f t="shared" si="14"/>
+        <v>0.41244304796631842</v>
+      </c>
       <c r="AB79" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.63877084797245176</v>
       </c>
     </row>
@@ -24153,40 +28358,40 @@
         <v>85</v>
       </c>
       <c r="S80" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.67028745804277912</v>
       </c>
       <c r="T80" s="28"/>
       <c r="U80" s="28">
-        <f>+S80</f>
+        <f t="shared" si="16"/>
         <v>0.67028745804277912</v>
       </c>
       <c r="V80" s="28">
-        <f>+K40</f>
-        <v>0.40978090758248853</v>
-      </c>
-      <c r="W80" s="28">
-        <f t="shared" si="12"/>
-        <v>0.40978090758248853</v>
-      </c>
-      <c r="X80" s="28">
-        <f t="shared" si="8"/>
-        <v>0.67028745804277912</v>
-      </c>
-      <c r="Y80" s="28">
-        <f t="shared" si="13"/>
-        <v>0.67028745804277912</v>
-      </c>
-      <c r="Z80" s="28">
-        <f t="shared" si="9"/>
-        <v>0.40978090758248853</v>
-      </c>
-      <c r="AA80" s="28">
         <f t="shared" si="10"/>
         <v>0.40978090758248853</v>
       </c>
+      <c r="W80" s="28">
+        <f t="shared" si="17"/>
+        <v>0.40978090758248853</v>
+      </c>
+      <c r="X80" s="28">
+        <f t="shared" si="12"/>
+        <v>0.67028745804277912</v>
+      </c>
+      <c r="Y80" s="28">
+        <f t="shared" si="18"/>
+        <v>0.67028745804277912</v>
+      </c>
+      <c r="Z80" s="28">
+        <f t="shared" si="13"/>
+        <v>0.40978090758248853</v>
+      </c>
+      <c r="AA80" s="28">
+        <f t="shared" si="14"/>
+        <v>0.40978090758248853</v>
+      </c>
       <c r="AB80" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.67028745804277912</v>
       </c>
     </row>
@@ -24220,40 +28425,40 @@
         <v>85</v>
       </c>
       <c r="S81" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.68184647187529401</v>
       </c>
       <c r="T81" s="28"/>
       <c r="U81" s="28">
-        <f>+S81</f>
+        <f t="shared" si="16"/>
         <v>0.68184647187529401</v>
       </c>
       <c r="V81" s="28">
-        <f>+K41</f>
-        <v>0.41685497065347216</v>
-      </c>
-      <c r="W81" s="28">
-        <f t="shared" si="12"/>
-        <v>0.41685497065347216</v>
-      </c>
-      <c r="X81" s="28">
-        <f t="shared" si="8"/>
-        <v>0.68184647187529401</v>
-      </c>
-      <c r="Y81" s="28">
-        <f t="shared" si="13"/>
-        <v>0.68184647187529401</v>
-      </c>
-      <c r="Z81" s="28">
-        <f t="shared" si="9"/>
-        <v>0.41685497065347216</v>
-      </c>
-      <c r="AA81" s="28">
         <f t="shared" si="10"/>
         <v>0.41685497065347216</v>
       </c>
+      <c r="W81" s="28">
+        <f t="shared" si="17"/>
+        <v>0.41685497065347216</v>
+      </c>
+      <c r="X81" s="28">
+        <f t="shared" si="12"/>
+        <v>0.68184647187529401</v>
+      </c>
+      <c r="Y81" s="28">
+        <f t="shared" si="18"/>
+        <v>0.68184647187529401</v>
+      </c>
+      <c r="Z81" s="28">
+        <f t="shared" si="13"/>
+        <v>0.41685497065347216</v>
+      </c>
+      <c r="AA81" s="28">
+        <f t="shared" si="14"/>
+        <v>0.41685497065347216</v>
+      </c>
       <c r="AB81" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.68184647187529401</v>
       </c>
     </row>
@@ -24287,40 +28492,40 @@
         <v>85</v>
       </c>
       <c r="S82" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.6600873825860083</v>
       </c>
       <c r="T82" s="28"/>
       <c r="U82" s="28">
-        <f>+S82</f>
+        <f t="shared" si="16"/>
         <v>0.6600873825860083</v>
       </c>
       <c r="V82" s="28">
-        <f>+K42</f>
-        <v>0.41787619211481425</v>
-      </c>
-      <c r="W82" s="28">
-        <f t="shared" si="12"/>
-        <v>0.41787619211481425</v>
-      </c>
-      <c r="X82" s="28">
-        <f t="shared" si="8"/>
-        <v>0.6600873825860083</v>
-      </c>
-      <c r="Y82" s="28">
-        <f t="shared" si="13"/>
-        <v>0.6600873825860083</v>
-      </c>
-      <c r="Z82" s="28">
-        <f t="shared" si="9"/>
-        <v>0.41787619211481425</v>
-      </c>
-      <c r="AA82" s="28">
         <f t="shared" si="10"/>
         <v>0.41787619211481425</v>
       </c>
+      <c r="W82" s="28">
+        <f t="shared" si="17"/>
+        <v>0.41787619211481425</v>
+      </c>
+      <c r="X82" s="28">
+        <f t="shared" si="12"/>
+        <v>0.6600873825860083</v>
+      </c>
+      <c r="Y82" s="28">
+        <f t="shared" si="18"/>
+        <v>0.6600873825860083</v>
+      </c>
+      <c r="Z82" s="28">
+        <f t="shared" si="13"/>
+        <v>0.41787619211481425</v>
+      </c>
+      <c r="AA82" s="28">
+        <f t="shared" si="14"/>
+        <v>0.41787619211481425</v>
+      </c>
       <c r="AB82" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.6600873825860083</v>
       </c>
     </row>
@@ -26972,9 +31177,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26984,7 +31190,7 @@
   <dimension ref="B1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31015,8 +35221,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>